--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EABD26-BE1B-0D46-A1DC-74A389C9B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6269A70-D128-1947-A475-A7A2AF823B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
     <sheet name="L2" sheetId="3" r:id="rId2"/>
     <sheet name="L3" sheetId="4" r:id="rId3"/>
+    <sheet name="survey" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="481">
   <si>
     <r>
       <rPr>
@@ -2291,9 +2292,6 @@
     <t>Active Retrieval Augmented Generation</t>
   </si>
   <si>
-    <t>NIPS</t>
-  </si>
-  <si>
     <t>ReadAgent</t>
   </si>
   <si>
@@ -2424,9 +2422,6 @@
   </si>
   <si>
     <t xml:space="preserve">AOP: Automated and Interactive LLM Pipeline Orchestration for Answering Complex Queries </t>
-  </si>
-  <si>
-    <t>CIDR'25</t>
   </si>
   <si>
     <t>iDataLake</t>
@@ -2504,6 +2499,119 @@
   </si>
   <si>
     <t>Tencent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Survey of Text-to-SQL in the Era of LLMs: Where are we, and where are we going?</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/11095853</t>
+  </si>
+  <si>
+    <t>TKDE</t>
+  </si>
+  <si>
+    <t>Natural Language to SQL: State of the Art and Open Problems</t>
+  </si>
+  <si>
+    <t>https://www.vldb.org/pvldb/vol18/p5466-luo.pdf</t>
+  </si>
+  <si>
+    <t>VLDB Tutorial</t>
+  </si>
+  <si>
+    <t>A Survey of LLM × DATA</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2505.18458</t>
+  </si>
+  <si>
+    <t>LLM/Agent-as-Data-Analyst: A Survey</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2509.23988</t>
+  </si>
+  <si>
+    <t>https://www.arxiv.org/abs/2508.02744</t>
+  </si>
+  <si>
+    <t>LLM-Based Data Science Agents: A Survey of Capabilities, Challenges, and Future Directions</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2510.04023</t>
+  </si>
+  <si>
+    <t>Large Language Models for Data Science: A Survey</t>
+  </si>
+  <si>
+    <t>https://rgdoi.net/10.13140/RG.2.2.14003.75042</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2412.14222</t>
+  </si>
+  <si>
+    <t>The American Statistician</t>
+  </si>
+  <si>
+    <t>Large Language Models for Data Discovery and Integration: Challenges and Opportunities</t>
+  </si>
+  <si>
+    <t>http://sites.computer.org/debull/A25mar/p3.pdf</t>
+  </si>
+  <si>
+    <t>IEEE Data Eng. Bull.</t>
+  </si>
+  <si>
+    <t>Data+AI: LLM4Data and Data4LLM</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3722212.3725641</t>
+  </si>
+  <si>
+    <t>SIGMOD Tutorial</t>
+  </si>
+  <si>
+    <t>LLM for Data Management</t>
+  </si>
+  <si>
+    <t>https://www.vldb.org/pvldb/vol17/p4213-li.pdf</t>
+  </si>
+  <si>
+    <t>Large Language Models for Data Annotation and Synthesis: A Survey</t>
+  </si>
+  <si>
+    <t>https://aclanthology.org/2024.emnlp-main.54.pdf</t>
+  </si>
+  <si>
+    <t>Data Management for Machine Learning: A Survey</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9705125</t>
+  </si>
+  <si>
+    <t>LLM As DBA</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2308.05481</t>
+  </si>
+  <si>
+    <t>Demystifying Artificial Intelligence for Data Preparation</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3555041.3589406</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Language Model-based Data Science Agent: A Survey</t>
+  </si>
+  <si>
+    <t>A Survey on Large Language Model-based Agents for Statistics and Data Science</t>
+  </si>
+  <si>
+    <t>NeurIPS</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2511,7 +2619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2609,8 +2717,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2892,8 +3017,14 @@
         <fgColor rgb="FF133C9A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6425D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -3356,11 +3487,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3523,9 +3670,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3607,9 +3751,22 @@
     <xf numFmtId="0" fontId="12" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="57" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3926,7 +4083,7 @@
   </sheetPr>
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3937,7 +4094,7 @@
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20" style="72" customWidth="1"/>
+    <col min="3" max="3" width="20" style="71" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -3950,7 +4107,7 @@
       <c r="B1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>128</v>
       </c>
       <c r="D1" s="31" t="s">
@@ -3973,7 +4130,7 @@
       <c r="B2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -3992,7 +4149,7 @@
     <row r="3" spans="1:7" ht="19" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -4011,7 +4168,7 @@
     <row r="4" spans="1:7" ht="19" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -4032,7 +4189,7 @@
         <v>144</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>145</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -4051,7 +4208,7 @@
     <row r="6" spans="1:7" ht="19" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -4072,7 +4229,7 @@
       <c r="B7" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4091,7 +4248,7 @@
     <row r="8" spans="1:7" ht="19" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -4110,7 +4267,7 @@
     <row r="9" spans="1:7" ht="19" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -4129,7 +4286,7 @@
     <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -4148,7 +4305,7 @@
     <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -4167,7 +4324,7 @@
     <row r="12" spans="1:7" ht="19" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -4186,7 +4343,7 @@
     <row r="13" spans="1:7" ht="19" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>164</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -4207,7 +4364,7 @@
       <c r="B14" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -4226,7 +4383,7 @@
     <row r="15" spans="1:7" ht="19" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>169</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -4249,7 +4406,7 @@
       <c r="B16" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4270,7 +4427,7 @@
         <v>144</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="57" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -4289,7 +4446,7 @@
     <row r="18" spans="1:7" ht="19" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>178</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -4308,7 +4465,7 @@
     <row r="19" spans="1:7" ht="19" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>180</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -4327,7 +4484,7 @@
     <row r="20" spans="1:7" ht="19" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="57" t="s">
         <v>183</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4348,7 +4505,7 @@
       <c r="B21" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -4367,7 +4524,7 @@
     <row r="22" spans="1:7" ht="19" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="59" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -4386,7 +4543,7 @@
     <row r="23" spans="1:7" ht="19" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>192</v>
       </c>
       <c r="D23" s="34" t="s">
@@ -4407,7 +4564,7 @@
       <c r="B24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -4426,7 +4583,7 @@
     <row r="25" spans="1:7" ht="25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>198</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4445,7 +4602,7 @@
     <row r="26" spans="1:7" ht="19" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4464,7 +4621,7 @@
     <row r="27" spans="1:7" ht="19" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>203</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4483,7 +4640,7 @@
     <row r="28" spans="1:7" ht="19" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>205</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4502,7 +4659,7 @@
     <row r="29" spans="1:7" ht="19" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="60" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4521,7 +4678,7 @@
     <row r="30" spans="1:7" ht="25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4544,7 +4701,7 @@
       <c r="B31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>213</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -4563,7 +4720,7 @@
     <row r="32" spans="1:7" ht="19" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4582,7 +4739,7 @@
     <row r="33" spans="1:7" ht="19" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>219</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -4601,7 +4758,7 @@
     <row r="34" spans="1:7" ht="19" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>222</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -4622,7 +4779,7 @@
       <c r="B35" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="64" t="s">
         <v>226</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -4641,7 +4798,7 @@
     <row r="36" spans="1:7" ht="19" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>229</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -4660,7 +4817,7 @@
     <row r="37" spans="1:7" ht="19" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>231</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -4679,7 +4836,7 @@
     <row r="38" spans="1:7" ht="19" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>233</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -4700,7 +4857,7 @@
       <c r="B39" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="66" t="s">
         <v>236</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -4719,7 +4876,7 @@
     <row r="40" spans="1:7" ht="19" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="66" t="s">
         <v>239</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -4738,7 +4895,7 @@
     <row r="41" spans="1:7" ht="19" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="67" t="s">
         <v>242</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -4757,7 +4914,7 @@
     <row r="42" spans="1:7" ht="19" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="67" t="s">
         <v>244</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -4778,7 +4935,7 @@
       <c r="B43" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="57" t="s">
         <v>248</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -4797,7 +4954,7 @@
     <row r="44" spans="1:7" ht="19" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>250</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4816,7 +4973,7 @@
     <row r="45" spans="1:7" ht="19" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="57" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -4835,7 +4992,7 @@
     <row r="46" spans="1:7" ht="19" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>254</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4854,7 +5011,7 @@
     <row r="47" spans="1:7" ht="19" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
         <v>256</v>
       </c>
       <c r="D47" s="15" t="s">
@@ -4873,7 +5030,7 @@
     <row r="48" spans="1:7" ht="19" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>258</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4894,7 +5051,7 @@
       <c r="B49" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="68" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -4913,7 +5070,7 @@
     <row r="50" spans="1:7" ht="19" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="68" t="s">
         <v>264</v>
       </c>
       <c r="D50" s="18" t="s">
@@ -4932,7 +5089,7 @@
     <row r="51" spans="1:7" ht="19" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="17"/>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="68" t="s">
         <v>267</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -4951,7 +5108,7 @@
     <row r="52" spans="1:7" ht="19" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="17"/>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="68" t="s">
         <v>270</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -4970,7 +5127,7 @@
     <row r="53" spans="1:7" ht="14">
       <c r="A53" s="22"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="69" t="s">
         <v>273</v>
       </c>
       <c r="D53" s="24" t="s">
@@ -4989,7 +5146,7 @@
     <row r="54" spans="1:7" ht="19" customHeight="1">
       <c r="A54" s="22"/>
       <c r="B54" s="20"/>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="70" t="s">
         <v>275</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -5032,7 +5189,7 @@
     <row r="61" spans="1:7">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="73"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
@@ -5041,7 +5198,7 @@
     <row r="62" spans="1:7">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="73"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="4"/>
@@ -5050,7 +5207,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="73"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
@@ -5059,7 +5216,7 @@
     <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="73"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="4"/>
@@ -5068,7 +5225,7 @@
     <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="73"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="4"/>
@@ -5077,7 +5234,7 @@
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="73"/>
+      <c r="C66" s="72"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="4"/>
@@ -5086,7 +5243,7 @@
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="73"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="4"/>
@@ -5095,7 +5252,7 @@
     <row r="68" spans="1:7">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="73"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
@@ -5104,7 +5261,7 @@
     <row r="69" spans="1:7">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="73"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
@@ -5113,7 +5270,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="73"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
@@ -5122,7 +5279,7 @@
     <row r="71" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="73"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
@@ -5131,7 +5288,7 @@
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="73"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
@@ -5140,7 +5297,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="73"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
@@ -5149,7 +5306,7 @@
     <row r="74" spans="1:7">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="73"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="4"/>
@@ -5158,7 +5315,7 @@
     <row r="75" spans="1:7">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="73"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
@@ -5167,7 +5324,7 @@
     <row r="76" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="73"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="4"/>
@@ -5176,7 +5333,7 @@
     <row r="77" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="73"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
@@ -5185,7 +5342,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="73"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="4"/>
@@ -5194,7 +5351,7 @@
     <row r="79" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="73"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="4"/>
@@ -5203,7 +5360,7 @@
     <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="73"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="4"/>
@@ -5212,7 +5369,7 @@
     <row r="81" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="73"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
@@ -5221,7 +5378,7 @@
     <row r="82" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="73"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="4"/>
@@ -5230,7 +5387,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="73"/>
+      <c r="C83" s="72"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
@@ -5239,7 +5396,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="73"/>
+      <c r="C84" s="72"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
@@ -5248,7 +5405,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="73"/>
+      <c r="C85" s="72"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
@@ -5257,7 +5414,7 @@
     <row r="86" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="73"/>
+      <c r="C86" s="72"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -5266,7 +5423,7 @@
     <row r="87" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="73"/>
+      <c r="C87" s="72"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
@@ -5275,7 +5432,7 @@
     <row r="88" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="73"/>
+      <c r="C88" s="72"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="4"/>
@@ -5284,7 +5441,7 @@
     <row r="89" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="73"/>
+      <c r="C89" s="72"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="4"/>
@@ -5293,7 +5450,7 @@
     <row r="90" spans="1:7">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="73"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
@@ -5302,7 +5459,7 @@
     <row r="91" spans="1:7">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="73"/>
+      <c r="C91" s="72"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
@@ -5311,7 +5468,7 @@
     <row r="92" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="73"/>
+      <c r="C92" s="72"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
@@ -5320,7 +5477,7 @@
     <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="73"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
@@ -5329,7 +5486,7 @@
     <row r="94" spans="1:7">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="73"/>
+      <c r="C94" s="72"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
@@ -5338,7 +5495,7 @@
     <row r="95" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="73"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
@@ -5347,7 +5504,7 @@
     <row r="96" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="73"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="4"/>
@@ -5356,7 +5513,7 @@
     <row r="97" spans="1:7">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="73"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -5365,7 +5522,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="73"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="4"/>
@@ -5374,7 +5531,7 @@
     <row r="99" spans="1:7">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="73"/>
+      <c r="C99" s="72"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="4"/>
@@ -5383,7 +5540,7 @@
     <row r="100" spans="1:7">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="73"/>
+      <c r="C100" s="72"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
@@ -5392,7 +5549,7 @@
     <row r="101" spans="1:7">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="73"/>
+      <c r="C101" s="72"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -5401,7 +5558,7 @@
     <row r="102" spans="1:7">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="73"/>
+      <c r="C102" s="72"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="4"/>
@@ -5410,7 +5567,7 @@
     <row r="103" spans="1:7">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="73"/>
+      <c r="C103" s="72"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4"/>
@@ -5419,7 +5576,7 @@
     <row r="104" spans="1:7">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="73"/>
+      <c r="C104" s="72"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -5428,7 +5585,7 @@
     <row r="105" spans="1:7">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="73"/>
+      <c r="C105" s="72"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
@@ -5437,7 +5594,7 @@
     <row r="106" spans="1:7">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="73"/>
+      <c r="C106" s="72"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
@@ -5446,7 +5603,7 @@
     <row r="107" spans="1:7">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="73"/>
+      <c r="C107" s="72"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
@@ -5455,7 +5612,7 @@
     <row r="108" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="73"/>
+      <c r="C108" s="72"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
@@ -5464,7 +5621,7 @@
     <row r="109" spans="1:7">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="73"/>
+      <c r="C109" s="72"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="4"/>
@@ -5473,7 +5630,7 @@
     <row r="110" spans="1:7">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="73"/>
+      <c r="C110" s="72"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
@@ -5482,7 +5639,7 @@
     <row r="111" spans="1:7">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="73"/>
+      <c r="C111" s="72"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
@@ -5491,7 +5648,7 @@
     <row r="112" spans="1:7">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="73"/>
+      <c r="C112" s="72"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
@@ -5500,7 +5657,7 @@
     <row r="113" spans="1:7">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="73"/>
+      <c r="C113" s="72"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
@@ -5509,7 +5666,7 @@
     <row r="114" spans="1:7">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="73"/>
+      <c r="C114" s="72"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
@@ -5518,7 +5675,7 @@
     <row r="115" spans="1:7">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="73"/>
+      <c r="C115" s="72"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="4"/>
@@ -5527,7 +5684,7 @@
     <row r="116" spans="1:7">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="73"/>
+      <c r="C116" s="72"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
@@ -5536,7 +5693,7 @@
     <row r="117" spans="1:7">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="73"/>
+      <c r="C117" s="72"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
@@ -5545,7 +5702,7 @@
     <row r="118" spans="1:7">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="73"/>
+      <c r="C118" s="72"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
@@ -5554,7 +5711,7 @@
     <row r="119" spans="1:7">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="73"/>
+      <c r="C119" s="72"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="4"/>
@@ -5563,7 +5720,7 @@
     <row r="120" spans="1:7">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="73"/>
+      <c r="C120" s="72"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
@@ -5572,7 +5729,7 @@
     <row r="121" spans="1:7">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="73"/>
+      <c r="C121" s="72"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
@@ -5581,7 +5738,7 @@
     <row r="122" spans="1:7">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="73"/>
+      <c r="C122" s="72"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
@@ -5590,7 +5747,7 @@
     <row r="123" spans="1:7">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="73"/>
+      <c r="C123" s="72"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
@@ -5599,7 +5756,7 @@
     <row r="124" spans="1:7">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="73"/>
+      <c r="C124" s="72"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
@@ -5608,7 +5765,7 @@
     <row r="125" spans="1:7">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="73"/>
+      <c r="C125" s="72"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
@@ -5617,7 +5774,7 @@
     <row r="126" spans="1:7">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="73"/>
+      <c r="C126" s="72"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
@@ -5626,7 +5783,7 @@
     <row r="127" spans="1:7">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="73"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
@@ -5635,7 +5792,7 @@
     <row r="128" spans="1:7">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="73"/>
+      <c r="C128" s="72"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
@@ -5644,7 +5801,7 @@
     <row r="129" spans="1:7">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="73"/>
+      <c r="C129" s="72"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
@@ -5653,7 +5810,7 @@
     <row r="130" spans="1:7">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="73"/>
+      <c r="C130" s="72"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
@@ -5662,7 +5819,7 @@
     <row r="131" spans="1:7">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="73"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="4"/>
@@ -5671,7 +5828,7 @@
     <row r="132" spans="1:7">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="73"/>
+      <c r="C132" s="72"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
@@ -5680,7 +5837,7 @@
     <row r="133" spans="1:7">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="73"/>
+      <c r="C133" s="72"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
@@ -5689,7 +5846,7 @@
     <row r="134" spans="1:7">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="73"/>
+      <c r="C134" s="72"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
@@ -5698,7 +5855,7 @@
     <row r="135" spans="1:7">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="73"/>
+      <c r="C135" s="72"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="4"/>
@@ -5707,7 +5864,7 @@
     <row r="136" spans="1:7">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="73"/>
+      <c r="C136" s="72"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
@@ -5716,7 +5873,7 @@
     <row r="137" spans="1:7">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="73"/>
+      <c r="C137" s="72"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
@@ -5725,7 +5882,7 @@
     <row r="138" spans="1:7">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="73"/>
+      <c r="C138" s="72"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="4"/>
@@ -5734,7 +5891,7 @@
     <row r="139" spans="1:7">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="73"/>
+      <c r="C139" s="72"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
@@ -5743,7 +5900,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="73"/>
+      <c r="C140" s="72"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="4"/>
@@ -5752,7 +5909,7 @@
     <row r="141" spans="1:7">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="73"/>
+      <c r="C141" s="72"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -5761,7 +5918,7 @@
     <row r="142" spans="1:7">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="73"/>
+      <c r="C142" s="72"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="4"/>
@@ -5770,7 +5927,7 @@
     <row r="143" spans="1:7">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="73"/>
+      <c r="C143" s="72"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4"/>
@@ -5779,7 +5936,7 @@
     <row r="144" spans="1:7">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="73"/>
+      <c r="C144" s="72"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="4"/>
@@ -5788,7 +5945,7 @@
     <row r="145" spans="1:7">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="73"/>
+      <c r="C145" s="72"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -5797,7 +5954,7 @@
     <row r="146" spans="1:7">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="73"/>
+      <c r="C146" s="72"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="4"/>
@@ -5806,7 +5963,7 @@
     <row r="147" spans="1:7">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="73"/>
+      <c r="C147" s="72"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -5815,7 +5972,7 @@
     <row r="148" spans="1:7">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="73"/>
+      <c r="C148" s="72"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="4"/>
@@ -5824,7 +5981,7 @@
     <row r="149" spans="1:7">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="73"/>
+      <c r="C149" s="72"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="4"/>
@@ -5833,7 +5990,7 @@
     <row r="150" spans="1:7">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="73"/>
+      <c r="C150" s="72"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="4"/>
@@ -5842,7 +5999,7 @@
     <row r="151" spans="1:7">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="73"/>
+      <c r="C151" s="72"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="4"/>
@@ -5851,7 +6008,7 @@
     <row r="152" spans="1:7">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="73"/>
+      <c r="C152" s="72"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="4"/>
@@ -5860,7 +6017,7 @@
     <row r="153" spans="1:7">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="73"/>
+      <c r="C153" s="72"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="4"/>
@@ -5869,7 +6026,7 @@
     <row r="154" spans="1:7">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="73"/>
+      <c r="C154" s="72"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="4"/>
@@ -5878,7 +6035,7 @@
     <row r="155" spans="1:7">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="73"/>
+      <c r="C155" s="72"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
@@ -5887,7 +6044,7 @@
     <row r="156" spans="1:7">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="73"/>
+      <c r="C156" s="72"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="4"/>
@@ -5896,7 +6053,7 @@
     <row r="157" spans="1:7">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="73"/>
+      <c r="C157" s="72"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="4"/>
@@ -5905,7 +6062,7 @@
     <row r="158" spans="1:7">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="73"/>
+      <c r="C158" s="72"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="4"/>
@@ -5914,7 +6071,7 @@
     <row r="159" spans="1:7">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="73"/>
+      <c r="C159" s="72"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="4"/>
@@ -5923,7 +6080,7 @@
     <row r="160" spans="1:7">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="73"/>
+      <c r="C160" s="72"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="4"/>
@@ -5932,7 +6089,7 @@
     <row r="161" spans="1:7">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="73"/>
+      <c r="C161" s="72"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="4"/>
@@ -5941,7 +6098,7 @@
     <row r="162" spans="1:7">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="73"/>
+      <c r="C162" s="72"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="4"/>
@@ -5950,7 +6107,7 @@
     <row r="163" spans="1:7">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="73"/>
+      <c r="C163" s="72"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="4"/>
@@ -5959,7 +6116,7 @@
     <row r="164" spans="1:7">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="73"/>
+      <c r="C164" s="72"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="4"/>
@@ -5968,7 +6125,7 @@
     <row r="165" spans="1:7">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="73"/>
+      <c r="C165" s="72"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="4"/>
@@ -5977,7 +6134,7 @@
     <row r="166" spans="1:7">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="73"/>
+      <c r="C166" s="72"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="4"/>
@@ -5986,7 +6143,7 @@
     <row r="167" spans="1:7">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="73"/>
+      <c r="C167" s="72"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="4"/>
@@ -5995,7 +6152,7 @@
     <row r="168" spans="1:7">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="73"/>
+      <c r="C168" s="72"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="4"/>
@@ -6004,7 +6161,7 @@
     <row r="169" spans="1:7">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="73"/>
+      <c r="C169" s="72"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="4"/>
@@ -6013,7 +6170,7 @@
     <row r="170" spans="1:7">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="73"/>
+      <c r="C170" s="72"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="4"/>
@@ -6022,7 +6179,7 @@
     <row r="171" spans="1:7">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="73"/>
+      <c r="C171" s="72"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="4"/>
@@ -6031,7 +6188,7 @@
     <row r="172" spans="1:7">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="73"/>
+      <c r="C172" s="72"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="4"/>
@@ -6040,7 +6197,7 @@
     <row r="173" spans="1:7">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="73"/>
+      <c r="C173" s="72"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="4"/>
@@ -6049,7 +6206,7 @@
     <row r="174" spans="1:7">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="73"/>
+      <c r="C174" s="72"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="4"/>
@@ -6058,7 +6215,7 @@
     <row r="175" spans="1:7">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="73"/>
+      <c r="C175" s="72"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="4"/>
@@ -6067,7 +6224,7 @@
     <row r="176" spans="1:7">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="73"/>
+      <c r="C176" s="72"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="4"/>
@@ -6076,7 +6233,7 @@
     <row r="177" spans="1:7">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="73"/>
+      <c r="C177" s="72"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="4"/>
@@ -6085,7 +6242,7 @@
     <row r="178" spans="1:7">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="73"/>
+      <c r="C178" s="72"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="4"/>
@@ -6094,7 +6251,7 @@
     <row r="179" spans="1:7">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="73"/>
+      <c r="C179" s="72"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="4"/>
@@ -6103,7 +6260,7 @@
     <row r="180" spans="1:7">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="73"/>
+      <c r="C180" s="72"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="4"/>
@@ -6112,7 +6269,7 @@
     <row r="181" spans="1:7">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="73"/>
+      <c r="C181" s="72"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="4"/>
@@ -6121,7 +6278,7 @@
     <row r="182" spans="1:7">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="73"/>
+      <c r="C182" s="72"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="4"/>
@@ -6130,7 +6287,7 @@
     <row r="183" spans="1:7">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="73"/>
+      <c r="C183" s="72"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="4"/>
@@ -6139,7 +6296,7 @@
     <row r="184" spans="1:7">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="73"/>
+      <c r="C184" s="72"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="4"/>
@@ -6148,7 +6305,7 @@
     <row r="185" spans="1:7">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="73"/>
+      <c r="C185" s="72"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="4"/>
@@ -6157,7 +6314,7 @@
     <row r="186" spans="1:7">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="73"/>
+      <c r="C186" s="72"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="4"/>
@@ -6166,7 +6323,7 @@
     <row r="187" spans="1:7">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="73"/>
+      <c r="C187" s="72"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="4"/>
@@ -6175,7 +6332,7 @@
     <row r="188" spans="1:7">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="73"/>
+      <c r="C188" s="72"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="4"/>
@@ -6184,7 +6341,7 @@
     <row r="189" spans="1:7">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="73"/>
+      <c r="C189" s="72"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="4"/>
@@ -6193,7 +6350,7 @@
     <row r="190" spans="1:7">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="73"/>
+      <c r="C190" s="72"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="4"/>
@@ -6202,7 +6359,7 @@
     <row r="191" spans="1:7">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="73"/>
+      <c r="C191" s="72"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
@@ -6211,7 +6368,7 @@
     <row r="192" spans="1:7">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="73"/>
+      <c r="C192" s="72"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="4"/>
@@ -6220,7 +6377,7 @@
     <row r="193" spans="1:7">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="73"/>
+      <c r="C193" s="72"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="4"/>
@@ -6229,7 +6386,7 @@
     <row r="194" spans="1:7">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="73"/>
+      <c r="C194" s="72"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="4"/>
@@ -6238,7 +6395,7 @@
     <row r="195" spans="1:7">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="73"/>
+      <c r="C195" s="72"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="4"/>
@@ -6247,7 +6404,7 @@
     <row r="196" spans="1:7">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="73"/>
+      <c r="C196" s="72"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="4"/>
@@ -6256,7 +6413,7 @@
     <row r="197" spans="1:7">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="73"/>
+      <c r="C197" s="72"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="4"/>
@@ -6265,7 +6422,7 @@
     <row r="198" spans="1:7">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="73"/>
+      <c r="C198" s="72"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="4"/>
@@ -6274,7 +6431,7 @@
     <row r="199" spans="1:7">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="73"/>
+      <c r="C199" s="72"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="4"/>
@@ -6283,7 +6440,7 @@
     <row r="200" spans="1:7">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="73"/>
+      <c r="C200" s="72"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="4"/>
@@ -6292,7 +6449,7 @@
     <row r="201" spans="1:7">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="73"/>
+      <c r="C201" s="72"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="4"/>
@@ -6301,7 +6458,7 @@
     <row r="202" spans="1:7">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="73"/>
+      <c r="C202" s="72"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="4"/>
@@ -6310,7 +6467,7 @@
     <row r="203" spans="1:7">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="73"/>
+      <c r="C203" s="72"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="4"/>
@@ -6319,7 +6476,7 @@
     <row r="204" spans="1:7">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="73"/>
+      <c r="C204" s="72"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="4"/>
@@ -6328,7 +6485,7 @@
     <row r="205" spans="1:7">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="73"/>
+      <c r="C205" s="72"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="4"/>
@@ -6337,7 +6494,7 @@
     <row r="206" spans="1:7">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="73"/>
+      <c r="C206" s="72"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="4"/>
@@ -6346,7 +6503,7 @@
     <row r="207" spans="1:7">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="73"/>
+      <c r="C207" s="72"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="4"/>
@@ -6355,7 +6512,7 @@
     <row r="208" spans="1:7">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="73"/>
+      <c r="C208" s="72"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="4"/>
@@ -6364,7 +6521,7 @@
     <row r="209" spans="1:7">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="73"/>
+      <c r="C209" s="72"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="4"/>
@@ -6373,7 +6530,7 @@
     <row r="210" spans="1:7">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="73"/>
+      <c r="C210" s="72"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="4"/>
@@ -6382,7 +6539,7 @@
     <row r="211" spans="1:7">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="73"/>
+      <c r="C211" s="72"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="4"/>
@@ -6391,7 +6548,7 @@
     <row r="212" spans="1:7">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="73"/>
+      <c r="C212" s="72"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="4"/>
@@ -6400,7 +6557,7 @@
     <row r="213" spans="1:7">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="73"/>
+      <c r="C213" s="72"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="4"/>
@@ -6409,7 +6566,7 @@
     <row r="214" spans="1:7">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="73"/>
+      <c r="C214" s="72"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="4"/>
@@ -6418,7 +6575,7 @@
     <row r="215" spans="1:7">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="73"/>
+      <c r="C215" s="72"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="4"/>
@@ -6427,7 +6584,7 @@
     <row r="216" spans="1:7">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="73"/>
+      <c r="C216" s="72"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="4"/>
@@ -6436,7 +6593,7 @@
     <row r="217" spans="1:7">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="73"/>
+      <c r="C217" s="72"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="4"/>
@@ -6445,7 +6602,7 @@
     <row r="218" spans="1:7">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="73"/>
+      <c r="C218" s="72"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="4"/>
@@ -6454,7 +6611,7 @@
     <row r="219" spans="1:7">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="73"/>
+      <c r="C219" s="72"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="4"/>
@@ -6463,7 +6620,7 @@
     <row r="220" spans="1:7">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="73"/>
+      <c r="C220" s="72"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="4"/>
@@ -6472,7 +6629,7 @@
     <row r="221" spans="1:7">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="73"/>
+      <c r="C221" s="72"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="4"/>
@@ -6481,7 +6638,7 @@
     <row r="222" spans="1:7">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="73"/>
+      <c r="C222" s="72"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="4"/>
@@ -6490,7 +6647,7 @@
     <row r="223" spans="1:7">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="73"/>
+      <c r="C223" s="72"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="4"/>
@@ -6499,7 +6656,7 @@
     <row r="224" spans="1:7">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="73"/>
+      <c r="C224" s="72"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="4"/>
@@ -6508,7 +6665,7 @@
     <row r="225" spans="1:7">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="73"/>
+      <c r="C225" s="72"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="4"/>
@@ -6517,7 +6674,7 @@
     <row r="226" spans="1:7">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="73"/>
+      <c r="C226" s="72"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="4"/>
@@ -6526,7 +6683,7 @@
     <row r="227" spans="1:7">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="73"/>
+      <c r="C227" s="72"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="4"/>
@@ -6535,7 +6692,7 @@
     <row r="228" spans="1:7">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="73"/>
+      <c r="C228" s="72"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="4"/>
@@ -6544,7 +6701,7 @@
     <row r="229" spans="1:7">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="73"/>
+      <c r="C229" s="72"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="4"/>
@@ -6553,7 +6710,7 @@
     <row r="230" spans="1:7">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="73"/>
+      <c r="C230" s="72"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="4"/>
@@ -6562,7 +6719,7 @@
     <row r="231" spans="1:7">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="73"/>
+      <c r="C231" s="72"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="4"/>
@@ -6571,7 +6728,7 @@
     <row r="232" spans="1:7">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="73"/>
+      <c r="C232" s="72"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="4"/>
@@ -6580,7 +6737,7 @@
     <row r="233" spans="1:7">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="73"/>
+      <c r="C233" s="72"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="4"/>
@@ -6589,7 +6746,7 @@
     <row r="234" spans="1:7">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="73"/>
+      <c r="C234" s="72"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="4"/>
@@ -6598,7 +6755,7 @@
     <row r="235" spans="1:7">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="73"/>
+      <c r="C235" s="72"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="4"/>
@@ -6607,7 +6764,7 @@
     <row r="236" spans="1:7">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="73"/>
+      <c r="C236" s="72"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="4"/>
@@ -6616,7 +6773,7 @@
     <row r="237" spans="1:7">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="73"/>
+      <c r="C237" s="72"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="4"/>
@@ -6690,16 +6847,16 @@
   </sheetPr>
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23" style="72" customWidth="1"/>
+    <col min="3" max="3" width="23" style="71" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
   </cols>
@@ -6711,7 +6868,7 @@
       <c r="B1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>128</v>
       </c>
       <c r="D1" s="30" t="s">
@@ -6734,7 +6891,7 @@
       <c r="B2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>278</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -6753,7 +6910,7 @@
     <row r="3" spans="1:7" ht="23" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>280</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -6774,7 +6931,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -6793,7 +6950,7 @@
     <row r="5" spans="1:7" ht="19" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>284</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -6814,7 +6971,7 @@
       <c r="B6" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>286</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -6833,7 +6990,7 @@
     <row r="7" spans="1:7" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -6852,7 +7009,7 @@
     <row r="8" spans="1:7" ht="19" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -6873,7 +7030,7 @@
       <c r="B9" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>293</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -6892,7 +7049,7 @@
     <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>296</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -6911,7 +7068,7 @@
     <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>298</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -6934,7 +7091,7 @@
       <c r="B12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>300</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -6953,7 +7110,7 @@
     <row r="13" spans="1:7" ht="19" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>302</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -6972,7 +7129,7 @@
     <row r="14" spans="1:7" ht="14">
       <c r="A14" s="8"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>305</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -6993,7 +7150,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="57" t="s">
         <v>307</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -7012,7 +7169,7 @@
     <row r="16" spans="1:7" ht="19" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>310</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -7031,7 +7188,7 @@
     <row r="17" spans="1:11" ht="19" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>313</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -7050,7 +7207,7 @@
     <row r="18" spans="1:11" ht="19" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>316</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -7071,7 +7228,7 @@
       <c r="B19" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>318</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -7090,7 +7247,7 @@
     <row r="20" spans="1:11" ht="19" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>320</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -7109,7 +7266,7 @@
     <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>323</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -7130,7 +7287,7 @@
       <c r="B22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>326</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -7149,7 +7306,7 @@
     <row r="23" spans="1:11" ht="19" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>328</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -7168,7 +7325,7 @@
     <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>330</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -7191,7 +7348,7 @@
     <row r="25" spans="1:11" ht="19" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>332</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -7214,7 +7371,7 @@
     <row r="26" spans="1:11" ht="19" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>334</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -7233,7 +7390,7 @@
     <row r="27" spans="1:11" ht="19" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>337</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -7252,7 +7409,7 @@
     <row r="28" spans="1:11" ht="19" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -7275,7 +7432,7 @@
       <c r="B29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>341</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -7294,7 +7451,7 @@
     <row r="30" spans="1:11" ht="19" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>343</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -7313,7 +7470,7 @@
     <row r="31" spans="1:11" ht="19" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>345</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -7332,7 +7489,7 @@
     <row r="32" spans="1:11" ht="19" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>347</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -7351,7 +7508,7 @@
     <row r="33" spans="1:8" ht="19" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="73" t="s">
         <v>349</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -7372,7 +7529,7 @@
       <c r="B34" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>351</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -7391,7 +7548,7 @@
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>353</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -7410,7 +7567,7 @@
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>355</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -7430,7 +7587,7 @@
     <row r="37" spans="1:8" ht="19" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>357</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -7449,7 +7606,7 @@
     <row r="38" spans="1:8" ht="19" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>360</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -7468,7 +7625,7 @@
     <row r="39" spans="1:8" ht="19" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
         <v>362</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -7487,7 +7644,7 @@
     <row r="40" spans="1:8" ht="19" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>364</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -7508,7 +7665,7 @@
       <c r="B41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>366</v>
       </c>
       <c r="D41" s="38" t="s">
@@ -7527,7 +7684,7 @@
     <row r="42" spans="1:8" ht="19" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="75" t="s">
         <v>368</v>
       </c>
       <c r="D42" s="38" t="s">
@@ -7546,7 +7703,7 @@
     <row r="43" spans="1:8" ht="19" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="74" t="s">
         <v>370</v>
       </c>
       <c r="D43" s="38" t="s">
@@ -7565,7 +7722,7 @@
     <row r="44" spans="1:8" ht="19" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="75" t="s">
         <v>372</v>
       </c>
       <c r="D44" s="38" t="s">
@@ -7586,7 +7743,7 @@
       <c r="B45" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>374</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -7596,7 +7753,7 @@
         <v>58</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="G45" s="16">
         <v>2023</v>
@@ -7605,11 +7762,11 @@
     <row r="46" spans="1:8" ht="19" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>378</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>75</v>
@@ -7624,11 +7781,11 @@
     <row r="47" spans="1:8" ht="19" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>76</v>
@@ -7643,11 +7800,11 @@
     <row r="48" spans="1:8" ht="19" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>77</v>
@@ -7662,11 +7819,11 @@
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>78</v>
@@ -7681,11 +7838,11 @@
     <row r="50" spans="1:7" ht="19" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>79</v>
@@ -7700,11 +7857,11 @@
     <row r="51" spans="1:7" ht="19" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>80</v>
@@ -7719,11 +7876,11 @@
     <row r="52" spans="1:7" ht="19" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>81</v>
@@ -7738,11 +7895,11 @@
     <row r="53" spans="1:7" ht="19" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>392</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>82</v>
@@ -7759,11 +7916,11 @@
       <c r="B54" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>393</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>394</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>67</v>
@@ -7778,17 +7935,17 @@
     <row r="55" spans="1:7" ht="19" customHeight="1">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>395</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>396</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G55" s="43">
         <v>2024</v>
@@ -7797,11 +7954,11 @@
     <row r="56" spans="1:7" ht="14">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>69</v>
@@ -7816,11 +7973,11 @@
     <row r="57" spans="1:7" ht="19" customHeight="1">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>400</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>401</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>70</v>
@@ -7835,11 +7992,11 @@
     <row r="58" spans="1:7" ht="19" customHeight="1">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>402</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>403</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>71</v>
@@ -7854,11 +8011,11 @@
     <row r="59" spans="1:7" ht="14">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>72</v>
@@ -7873,11 +8030,11 @@
     <row r="60" spans="1:7" ht="14">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>406</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>407</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>73</v>
@@ -7892,11 +8049,11 @@
     <row r="61" spans="1:7" ht="14">
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>408</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>409</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>74</v>
@@ -7911,11 +8068,11 @@
     <row r="62" spans="1:7" ht="14">
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="77" t="s">
+      <c r="C62" s="76" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>91</v>
@@ -7930,7 +8087,7 @@
     <row r="63" spans="1:7" ht="17">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="73"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="44"/>
       <c r="E63" s="5"/>
       <c r="F63" s="37"/>
@@ -7939,7 +8096,7 @@
     <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="73"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="46"/>
       <c r="E64" s="46"/>
       <c r="F64" s="45"/>
@@ -7948,7 +8105,7 @@
     <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="73"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="46"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
@@ -7957,7 +8114,7 @@
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="73"/>
+      <c r="C66" s="72"/>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
@@ -7966,7 +8123,7 @@
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="73"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
       <c r="F67" s="45"/>
@@ -7975,7 +8132,7 @@
     <row r="68" spans="1:7">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="73"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
       <c r="F68" s="45"/>
@@ -7984,7 +8141,7 @@
     <row r="69" spans="1:7">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="73"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="37"/>
@@ -7993,7 +8150,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="73"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="37"/>
@@ -8002,7 +8159,7 @@
     <row r="71" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="73"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="37"/>
@@ -8011,7 +8168,7 @@
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="73"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="37"/>
@@ -8020,7 +8177,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="73"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="37"/>
@@ -8029,7 +8186,7 @@
     <row r="74" spans="1:7">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="73"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="37"/>
@@ -8038,7 +8195,7 @@
     <row r="75" spans="1:7">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="73"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="37"/>
@@ -8047,7 +8204,7 @@
     <row r="76" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="73"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="37"/>
@@ -8056,7 +8213,7 @@
     <row r="77" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="73"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="37"/>
@@ -8065,7 +8222,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="73"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="37"/>
@@ -8074,7 +8231,7 @@
     <row r="79" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="73"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="37"/>
@@ -8083,7 +8240,7 @@
     <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="73"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="37"/>
@@ -8092,7 +8249,7 @@
     <row r="81" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="73"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="37"/>
@@ -8101,7 +8258,7 @@
     <row r="82" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="73"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="37"/>
@@ -8110,7 +8267,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="73"/>
+      <c r="C83" s="72"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="37"/>
@@ -8119,7 +8276,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="73"/>
+      <c r="C84" s="72"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="37"/>
@@ -8128,7 +8285,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="73"/>
+      <c r="C85" s="72"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="37"/>
@@ -8137,7 +8294,7 @@
     <row r="86" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="73"/>
+      <c r="C86" s="72"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="37"/>
@@ -8146,7 +8303,7 @@
     <row r="87" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="73"/>
+      <c r="C87" s="72"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="37"/>
@@ -8155,7 +8312,7 @@
     <row r="88" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="73"/>
+      <c r="C88" s="72"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="37"/>
@@ -8164,7 +8321,7 @@
     <row r="89" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="73"/>
+      <c r="C89" s="72"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="37"/>
@@ -8173,7 +8330,7 @@
     <row r="90" spans="1:7">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="73"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="37"/>
@@ -8182,7 +8339,7 @@
     <row r="91" spans="1:7">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="73"/>
+      <c r="C91" s="72"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="37"/>
@@ -8191,7 +8348,7 @@
     <row r="92" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="73"/>
+      <c r="C92" s="72"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="37"/>
@@ -8200,7 +8357,7 @@
     <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="73"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="37"/>
@@ -8209,7 +8366,7 @@
     <row r="94" spans="1:7">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="73"/>
+      <c r="C94" s="72"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="37"/>
@@ -8218,7 +8375,7 @@
     <row r="95" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="73"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="37"/>
@@ -8227,7 +8384,7 @@
     <row r="96" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="73"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="37"/>
@@ -8236,7 +8393,7 @@
     <row r="97" spans="1:7">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="73"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="37"/>
@@ -8245,7 +8402,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="73"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="37"/>
@@ -8254,7 +8411,7 @@
     <row r="99" spans="1:7">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="73"/>
+      <c r="C99" s="72"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="37"/>
@@ -8263,7 +8420,7 @@
     <row r="100" spans="1:7">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="73"/>
+      <c r="C100" s="72"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="37"/>
@@ -8272,7 +8429,7 @@
     <row r="101" spans="1:7">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="73"/>
+      <c r="C101" s="72"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="37"/>
@@ -8281,7 +8438,7 @@
     <row r="102" spans="1:7">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="73"/>
+      <c r="C102" s="72"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="37"/>
@@ -8290,7 +8447,7 @@
     <row r="103" spans="1:7">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="73"/>
+      <c r="C103" s="72"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="37"/>
@@ -8299,7 +8456,7 @@
     <row r="104" spans="1:7">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="73"/>
+      <c r="C104" s="72"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="37"/>
@@ -8308,7 +8465,7 @@
     <row r="105" spans="1:7">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="73"/>
+      <c r="C105" s="72"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="37"/>
@@ -8317,7 +8474,7 @@
     <row r="106" spans="1:7">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="73"/>
+      <c r="C106" s="72"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="37"/>
@@ -8326,7 +8483,7 @@
     <row r="107" spans="1:7">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="73"/>
+      <c r="C107" s="72"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="37"/>
@@ -8335,7 +8492,7 @@
     <row r="108" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="73"/>
+      <c r="C108" s="72"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="37"/>
@@ -8344,7 +8501,7 @@
     <row r="109" spans="1:7">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="73"/>
+      <c r="C109" s="72"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="37"/>
@@ -8353,7 +8510,7 @@
     <row r="110" spans="1:7">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="73"/>
+      <c r="C110" s="72"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="37"/>
@@ -8362,7 +8519,7 @@
     <row r="111" spans="1:7">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="73"/>
+      <c r="C111" s="72"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="37"/>
@@ -8371,7 +8528,7 @@
     <row r="112" spans="1:7">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="73"/>
+      <c r="C112" s="72"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="37"/>
@@ -8380,7 +8537,7 @@
     <row r="113" spans="1:7">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="73"/>
+      <c r="C113" s="72"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="37"/>
@@ -8389,7 +8546,7 @@
     <row r="114" spans="1:7">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="73"/>
+      <c r="C114" s="72"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="37"/>
@@ -8398,7 +8555,7 @@
     <row r="115" spans="1:7">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="73"/>
+      <c r="C115" s="72"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="37"/>
@@ -8407,7 +8564,7 @@
     <row r="116" spans="1:7">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="73"/>
+      <c r="C116" s="72"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="37"/>
@@ -8416,7 +8573,7 @@
     <row r="117" spans="1:7">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="73"/>
+      <c r="C117" s="72"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="37"/>
@@ -8425,7 +8582,7 @@
     <row r="118" spans="1:7">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="73"/>
+      <c r="C118" s="72"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="37"/>
@@ -8434,7 +8591,7 @@
     <row r="119" spans="1:7">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="73"/>
+      <c r="C119" s="72"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="37"/>
@@ -8443,7 +8600,7 @@
     <row r="120" spans="1:7">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="73"/>
+      <c r="C120" s="72"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="37"/>
@@ -8452,7 +8609,7 @@
     <row r="121" spans="1:7">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="73"/>
+      <c r="C121" s="72"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="37"/>
@@ -8461,7 +8618,7 @@
     <row r="122" spans="1:7">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="73"/>
+      <c r="C122" s="72"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="37"/>
@@ -8470,7 +8627,7 @@
     <row r="123" spans="1:7">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="73"/>
+      <c r="C123" s="72"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="37"/>
@@ -8479,7 +8636,7 @@
     <row r="124" spans="1:7">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="73"/>
+      <c r="C124" s="72"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="37"/>
@@ -8488,7 +8645,7 @@
     <row r="125" spans="1:7">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="73"/>
+      <c r="C125" s="72"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="37"/>
@@ -8497,7 +8654,7 @@
     <row r="126" spans="1:7">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="73"/>
+      <c r="C126" s="72"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="37"/>
@@ -8506,7 +8663,7 @@
     <row r="127" spans="1:7">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="73"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="37"/>
@@ -8515,7 +8672,7 @@
     <row r="128" spans="1:7">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="73"/>
+      <c r="C128" s="72"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="37"/>
@@ -8524,7 +8681,7 @@
     <row r="129" spans="1:7">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="73"/>
+      <c r="C129" s="72"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="37"/>
@@ -8533,7 +8690,7 @@
     <row r="130" spans="1:7">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="73"/>
+      <c r="C130" s="72"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="37"/>
@@ -8542,7 +8699,7 @@
     <row r="131" spans="1:7">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="73"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="37"/>
@@ -8551,7 +8708,7 @@
     <row r="132" spans="1:7">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="73"/>
+      <c r="C132" s="72"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="37"/>
@@ -8560,7 +8717,7 @@
     <row r="133" spans="1:7">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="73"/>
+      <c r="C133" s="72"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="37"/>
@@ -8569,7 +8726,7 @@
     <row r="134" spans="1:7">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="73"/>
+      <c r="C134" s="72"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="37"/>
@@ -8578,7 +8735,7 @@
     <row r="135" spans="1:7">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="73"/>
+      <c r="C135" s="72"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="37"/>
@@ -8587,7 +8744,7 @@
     <row r="136" spans="1:7">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="73"/>
+      <c r="C136" s="72"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="37"/>
@@ -8596,7 +8753,7 @@
     <row r="137" spans="1:7">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="73"/>
+      <c r="C137" s="72"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="37"/>
@@ -8605,7 +8762,7 @@
     <row r="138" spans="1:7">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="73"/>
+      <c r="C138" s="72"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="37"/>
@@ -8614,7 +8771,7 @@
     <row r="139" spans="1:7">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="73"/>
+      <c r="C139" s="72"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="37"/>
@@ -8623,7 +8780,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="73"/>
+      <c r="C140" s="72"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="37"/>
@@ -8632,7 +8789,7 @@
     <row r="141" spans="1:7">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="73"/>
+      <c r="C141" s="72"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="37"/>
@@ -8641,7 +8798,7 @@
     <row r="142" spans="1:7">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="73"/>
+      <c r="C142" s="72"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="37"/>
@@ -8650,7 +8807,7 @@
     <row r="143" spans="1:7">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="73"/>
+      <c r="C143" s="72"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="37"/>
@@ -8659,7 +8816,7 @@
     <row r="144" spans="1:7">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="73"/>
+      <c r="C144" s="72"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="37"/>
@@ -8668,7 +8825,7 @@
     <row r="145" spans="1:7">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="73"/>
+      <c r="C145" s="72"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="37"/>
@@ -8677,7 +8834,7 @@
     <row r="146" spans="1:7">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="73"/>
+      <c r="C146" s="72"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="37"/>
@@ -8686,7 +8843,7 @@
     <row r="147" spans="1:7">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="73"/>
+      <c r="C147" s="72"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="37"/>
@@ -8695,7 +8852,7 @@
     <row r="148" spans="1:7">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="73"/>
+      <c r="C148" s="72"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="37"/>
@@ -8704,7 +8861,7 @@
     <row r="149" spans="1:7">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="73"/>
+      <c r="C149" s="72"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="37"/>
@@ -8713,7 +8870,7 @@
     <row r="150" spans="1:7">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="73"/>
+      <c r="C150" s="72"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="37"/>
@@ -8722,7 +8879,7 @@
     <row r="151" spans="1:7">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="73"/>
+      <c r="C151" s="72"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="37"/>
@@ -8731,7 +8888,7 @@
     <row r="152" spans="1:7">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="73"/>
+      <c r="C152" s="72"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="37"/>
@@ -8740,7 +8897,7 @@
     <row r="153" spans="1:7">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="73"/>
+      <c r="C153" s="72"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="37"/>
@@ -8749,7 +8906,7 @@
     <row r="154" spans="1:7">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="73"/>
+      <c r="C154" s="72"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="37"/>
@@ -8758,7 +8915,7 @@
     <row r="155" spans="1:7">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="73"/>
+      <c r="C155" s="72"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="37"/>
@@ -8767,7 +8924,7 @@
     <row r="156" spans="1:7">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="73"/>
+      <c r="C156" s="72"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="37"/>
@@ -8776,7 +8933,7 @@
     <row r="157" spans="1:7">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="73"/>
+      <c r="C157" s="72"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="37"/>
@@ -8785,7 +8942,7 @@
     <row r="158" spans="1:7">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="73"/>
+      <c r="C158" s="72"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="37"/>
@@ -8794,7 +8951,7 @@
     <row r="159" spans="1:7">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="73"/>
+      <c r="C159" s="72"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="37"/>
@@ -8803,7 +8960,7 @@
     <row r="160" spans="1:7">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="73"/>
+      <c r="C160" s="72"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="37"/>
@@ -8812,7 +8969,7 @@
     <row r="161" spans="1:7">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="73"/>
+      <c r="C161" s="72"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="37"/>
@@ -8821,7 +8978,7 @@
     <row r="162" spans="1:7">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="73"/>
+      <c r="C162" s="72"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="37"/>
@@ -8830,7 +8987,7 @@
     <row r="163" spans="1:7">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="73"/>
+      <c r="C163" s="72"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="37"/>
@@ -8839,7 +8996,7 @@
     <row r="164" spans="1:7">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="73"/>
+      <c r="C164" s="72"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="37"/>
@@ -8848,7 +9005,7 @@
     <row r="165" spans="1:7">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="73"/>
+      <c r="C165" s="72"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="37"/>
@@ -8857,7 +9014,7 @@
     <row r="166" spans="1:7">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="73"/>
+      <c r="C166" s="72"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="37"/>
@@ -8866,7 +9023,7 @@
     <row r="167" spans="1:7">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="73"/>
+      <c r="C167" s="72"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="37"/>
@@ -8875,7 +9032,7 @@
     <row r="168" spans="1:7">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="73"/>
+      <c r="C168" s="72"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="37"/>
@@ -8884,7 +9041,7 @@
     <row r="169" spans="1:7">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="73"/>
+      <c r="C169" s="72"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="37"/>
@@ -8893,7 +9050,7 @@
     <row r="170" spans="1:7">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="73"/>
+      <c r="C170" s="72"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="37"/>
@@ -8902,7 +9059,7 @@
     <row r="171" spans="1:7">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="73"/>
+      <c r="C171" s="72"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="37"/>
@@ -8911,7 +9068,7 @@
     <row r="172" spans="1:7">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="73"/>
+      <c r="C172" s="72"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="37"/>
@@ -8920,7 +9077,7 @@
     <row r="173" spans="1:7">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="73"/>
+      <c r="C173" s="72"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="37"/>
@@ -8929,7 +9086,7 @@
     <row r="174" spans="1:7">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="73"/>
+      <c r="C174" s="72"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="37"/>
@@ -8938,7 +9095,7 @@
     <row r="175" spans="1:7">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="73"/>
+      <c r="C175" s="72"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="37"/>
@@ -8947,7 +9104,7 @@
     <row r="176" spans="1:7">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="73"/>
+      <c r="C176" s="72"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="37"/>
@@ -8956,7 +9113,7 @@
     <row r="177" spans="1:7">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="73"/>
+      <c r="C177" s="72"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="37"/>
@@ -8965,7 +9122,7 @@
     <row r="178" spans="1:7">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="73"/>
+      <c r="C178" s="72"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="37"/>
@@ -8974,7 +9131,7 @@
     <row r="179" spans="1:7">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="73"/>
+      <c r="C179" s="72"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="37"/>
@@ -8983,7 +9140,7 @@
     <row r="180" spans="1:7">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="73"/>
+      <c r="C180" s="72"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="37"/>
@@ -8992,7 +9149,7 @@
     <row r="181" spans="1:7">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="73"/>
+      <c r="C181" s="72"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="37"/>
@@ -9001,7 +9158,7 @@
     <row r="182" spans="1:7">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="73"/>
+      <c r="C182" s="72"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="37"/>
@@ -9010,7 +9167,7 @@
     <row r="183" spans="1:7">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="73"/>
+      <c r="C183" s="72"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="37"/>
@@ -9019,7 +9176,7 @@
     <row r="184" spans="1:7">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="73"/>
+      <c r="C184" s="72"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="37"/>
@@ -9028,7 +9185,7 @@
     <row r="185" spans="1:7">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="73"/>
+      <c r="C185" s="72"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="37"/>
@@ -9037,7 +9194,7 @@
     <row r="186" spans="1:7">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="73"/>
+      <c r="C186" s="72"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="37"/>
@@ -9046,7 +9203,7 @@
     <row r="187" spans="1:7">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="73"/>
+      <c r="C187" s="72"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="37"/>
@@ -9055,7 +9212,7 @@
     <row r="188" spans="1:7">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="73"/>
+      <c r="C188" s="72"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="37"/>
@@ -9064,7 +9221,7 @@
     <row r="189" spans="1:7">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="73"/>
+      <c r="C189" s="72"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="37"/>
@@ -9073,7 +9230,7 @@
     <row r="190" spans="1:7">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="73"/>
+      <c r="C190" s="72"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="37"/>
@@ -9082,7 +9239,7 @@
     <row r="191" spans="1:7">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="73"/>
+      <c r="C191" s="72"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="37"/>
@@ -9091,7 +9248,7 @@
     <row r="192" spans="1:7">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="73"/>
+      <c r="C192" s="72"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="37"/>
@@ -9100,7 +9257,7 @@
     <row r="193" spans="1:7">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="73"/>
+      <c r="C193" s="72"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="37"/>
@@ -9109,7 +9266,7 @@
     <row r="194" spans="1:7">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="73"/>
+      <c r="C194" s="72"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="37"/>
@@ -9118,7 +9275,7 @@
     <row r="195" spans="1:7">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="73"/>
+      <c r="C195" s="72"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="37"/>
@@ -9127,7 +9284,7 @@
     <row r="196" spans="1:7">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="73"/>
+      <c r="C196" s="72"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="37"/>
@@ -9136,7 +9293,7 @@
     <row r="197" spans="1:7">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="73"/>
+      <c r="C197" s="72"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="37"/>
@@ -9145,7 +9302,7 @@
     <row r="198" spans="1:7">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="73"/>
+      <c r="C198" s="72"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="37"/>
@@ -9154,7 +9311,7 @@
     <row r="199" spans="1:7">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="73"/>
+      <c r="C199" s="72"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="37"/>
@@ -9163,7 +9320,7 @@
     <row r="200" spans="1:7">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="73"/>
+      <c r="C200" s="72"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="37"/>
@@ -9172,7 +9329,7 @@
     <row r="201" spans="1:7">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="73"/>
+      <c r="C201" s="72"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="37"/>
@@ -9181,7 +9338,7 @@
     <row r="202" spans="1:7">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="73"/>
+      <c r="C202" s="72"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="37"/>
@@ -9190,7 +9347,7 @@
     <row r="203" spans="1:7">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="73"/>
+      <c r="C203" s="72"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="37"/>
@@ -9199,7 +9356,7 @@
     <row r="204" spans="1:7">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="73"/>
+      <c r="C204" s="72"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="37"/>
@@ -9208,7 +9365,7 @@
     <row r="205" spans="1:7">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="73"/>
+      <c r="C205" s="72"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="37"/>
@@ -9217,7 +9374,7 @@
     <row r="206" spans="1:7">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="73"/>
+      <c r="C206" s="72"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="37"/>
@@ -9226,7 +9383,7 @@
     <row r="207" spans="1:7">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="73"/>
+      <c r="C207" s="72"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="37"/>
@@ -9235,7 +9392,7 @@
     <row r="208" spans="1:7">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="73"/>
+      <c r="C208" s="72"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="37"/>
@@ -9244,7 +9401,7 @@
     <row r="209" spans="1:7">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="73"/>
+      <c r="C209" s="72"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="37"/>
@@ -9253,7 +9410,7 @@
     <row r="210" spans="1:7">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="73"/>
+      <c r="C210" s="72"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="37"/>
@@ -9262,7 +9419,7 @@
     <row r="211" spans="1:7">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="73"/>
+      <c r="C211" s="72"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="37"/>
@@ -9271,7 +9428,7 @@
     <row r="212" spans="1:7">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="73"/>
+      <c r="C212" s="72"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="37"/>
@@ -9280,7 +9437,7 @@
     <row r="213" spans="1:7">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="73"/>
+      <c r="C213" s="72"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="37"/>
@@ -9289,7 +9446,7 @@
     <row r="214" spans="1:7">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="73"/>
+      <c r="C214" s="72"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="37"/>
@@ -9298,7 +9455,7 @@
     <row r="215" spans="1:7">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="73"/>
+      <c r="C215" s="72"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="37"/>
@@ -9307,7 +9464,7 @@
     <row r="216" spans="1:7">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="73"/>
+      <c r="C216" s="72"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="37"/>
@@ -9316,7 +9473,7 @@
     <row r="217" spans="1:7">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="73"/>
+      <c r="C217" s="72"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="37"/>
@@ -9325,7 +9482,7 @@
     <row r="218" spans="1:7">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="73"/>
+      <c r="C218" s="72"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="37"/>
@@ -9334,7 +9491,7 @@
     <row r="219" spans="1:7">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="73"/>
+      <c r="C219" s="72"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="37"/>
@@ -9343,7 +9500,7 @@
     <row r="220" spans="1:7">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="73"/>
+      <c r="C220" s="72"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="37"/>
@@ -9352,7 +9509,7 @@
     <row r="221" spans="1:7">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="73"/>
+      <c r="C221" s="72"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="37"/>
@@ -9361,7 +9518,7 @@
     <row r="222" spans="1:7">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="73"/>
+      <c r="C222" s="72"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="37"/>
@@ -9370,7 +9527,7 @@
     <row r="223" spans="1:7">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="73"/>
+      <c r="C223" s="72"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="37"/>
@@ -9379,7 +9536,7 @@
     <row r="224" spans="1:7">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="73"/>
+      <c r="C224" s="72"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="37"/>
@@ -9388,7 +9545,7 @@
     <row r="225" spans="1:7">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="73"/>
+      <c r="C225" s="72"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="37"/>
@@ -9397,7 +9554,7 @@
     <row r="226" spans="1:7">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="73"/>
+      <c r="C226" s="72"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="37"/>
@@ -9406,7 +9563,7 @@
     <row r="227" spans="1:7">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="73"/>
+      <c r="C227" s="72"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="37"/>
@@ -9415,7 +9572,7 @@
     <row r="228" spans="1:7">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="73"/>
+      <c r="C228" s="72"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="37"/>
@@ -9424,7 +9581,7 @@
     <row r="229" spans="1:7">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="73"/>
+      <c r="C229" s="72"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="37"/>
@@ -9433,7 +9590,7 @@
     <row r="230" spans="1:7">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="73"/>
+      <c r="C230" s="72"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="37"/>
@@ -9442,7 +9599,7 @@
     <row r="231" spans="1:7">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="73"/>
+      <c r="C231" s="72"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="37"/>
@@ -9451,7 +9608,7 @@
     <row r="232" spans="1:7">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="73"/>
+      <c r="C232" s="72"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="37"/>
@@ -9460,7 +9617,7 @@
     <row r="233" spans="1:7">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="73"/>
+      <c r="C233" s="72"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="37"/>
@@ -9469,7 +9626,7 @@
     <row r="234" spans="1:7">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="73"/>
+      <c r="C234" s="72"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="37"/>
@@ -9478,7 +9635,7 @@
     <row r="235" spans="1:7">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="73"/>
+      <c r="C235" s="72"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="37"/>
@@ -9487,7 +9644,7 @@
     <row r="236" spans="1:7">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="73"/>
+      <c r="C236" s="72"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="37"/>
@@ -9496,7 +9653,7 @@
     <row r="237" spans="1:7">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="73"/>
+      <c r="C237" s="72"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="37"/>
@@ -9505,7 +9662,7 @@
     <row r="238" spans="1:7">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="73"/>
+      <c r="C238" s="72"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="37"/>
@@ -9514,7 +9671,7 @@
     <row r="239" spans="1:7">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="73"/>
+      <c r="C239" s="72"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="37"/>
@@ -9523,7 +9680,7 @@
     <row r="240" spans="1:7">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="73"/>
+      <c r="C240" s="72"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="37"/>
@@ -9532,7 +9689,7 @@
     <row r="241" spans="1:7">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="73"/>
+      <c r="C241" s="72"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="37"/>
@@ -9541,7 +9698,7 @@
     <row r="242" spans="1:7">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="73"/>
+      <c r="C242" s="72"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="37"/>
@@ -9550,7 +9707,7 @@
     <row r="243" spans="1:7">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="73"/>
+      <c r="C243" s="72"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="37"/>
@@ -9559,7 +9716,7 @@
     <row r="244" spans="1:7">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="73"/>
+      <c r="C244" s="72"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="37"/>
@@ -9568,7 +9725,7 @@
     <row r="245" spans="1:7">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
-      <c r="C245" s="73"/>
+      <c r="C245" s="72"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="37"/>
@@ -9577,7 +9734,7 @@
     <row r="246" spans="1:7">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="73"/>
+      <c r="C246" s="72"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="37"/>
@@ -9586,7 +9743,7 @@
     <row r="247" spans="1:7">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
-      <c r="C247" s="73"/>
+      <c r="C247" s="72"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="37"/>
@@ -9595,7 +9752,7 @@
     <row r="248" spans="1:7">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
-      <c r="C248" s="73"/>
+      <c r="C248" s="72"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="37"/>
@@ -9604,7 +9761,7 @@
     <row r="249" spans="1:7">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="73"/>
+      <c r="C249" s="72"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="37"/>
@@ -9613,7 +9770,7 @@
     <row r="250" spans="1:7">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="73"/>
+      <c r="C250" s="72"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="37"/>
@@ -9622,7 +9779,7 @@
     <row r="251" spans="1:7">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="73"/>
+      <c r="C251" s="72"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="37"/>
@@ -9706,7 +9863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -9718,247 +9875,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>412</v>
+      <c r="F1" s="84" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="14">
       <c r="A3" s="37">
         <v>2025</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" customHeight="1">
       <c r="A4" s="37">
         <v>2025</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14">
       <c r="A5" s="37">
         <v>2025</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>421</v>
+      <c r="E5" s="53" t="s">
+        <v>477</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14">
       <c r="A6" s="37">
         <v>2025</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>422</v>
+      <c r="B6" s="77" t="s">
+        <v>420</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14">
       <c r="A7" s="37">
         <v>2025</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>425</v>
+      <c r="B7" s="78" t="s">
+        <v>423</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14">
       <c r="A8" s="37">
         <v>2024</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>427</v>
+      <c r="B8" s="77" t="s">
+        <v>425</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14">
       <c r="A9" s="37"/>
-      <c r="B9" s="78" t="s">
-        <v>430</v>
+      <c r="B9" s="77" t="s">
+        <v>428</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1">
       <c r="A10" s="37"/>
-      <c r="B10" s="78" t="s">
-        <v>431</v>
+      <c r="B10" s="77" t="s">
+        <v>429</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" customHeight="1">
       <c r="A12" s="37"/>
-      <c r="B12" s="79" t="s">
-        <v>434</v>
+      <c r="B12" s="78" t="s">
+        <v>432</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" customHeight="1">
       <c r="A13" s="37"/>
-      <c r="B13" s="78" t="s">
-        <v>436</v>
+      <c r="B13" s="77" t="s">
+        <v>434</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" customHeight="1">
       <c r="A14" s="37"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>438</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>440</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" customHeight="1">
@@ -11483,4 +11640,264 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF57CB64-0143-634E-B2B9-D0257CE1E416}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="82">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="82">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="82">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="82">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="82">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="82">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B2A53827-C15F-0548-95CE-E328D91FA31F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{65DED945-1FCA-204C-9A78-128107C30375}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{9CB2BFBA-5BED-F24A-8133-B15C7B58E116}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FC722738-4636-D445-A0BD-26A1D45477DD}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{259C37F5-23CE-494D-94F4-EE17FB3EE14F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{791F22E6-3ABA-E148-A84F-CA6CF6D8758B}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{AD2B3145-F24F-4946-B77E-E7B37B0CAB68}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{B226C81E-3A01-BD49-95FE-6F282FB81697}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{9FA663DA-3771-BA45-B80C-FE35FC6E6EA5}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{F3B67895-25B9-854F-91B7-C2BA267A9D7B}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{E3AF1F7D-C0C7-534E-9AB0-D35C8744AB7D}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{5EABC8A9-938F-6E4A-A0F5-B299C6DEE5DE}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{2D76FE84-9E11-944C-86A6-3D96303DF5B5}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{6DEE2295-A14C-F143-9FC3-FC2CCB966FB7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{1DB0493C-F001-4845-883F-251822557CC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6269A70-D128-1947-A475-A7A2AF823B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700975CE-AC5C-6248-9D15-E7C4C34CBF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="2300" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="488">
   <si>
     <r>
       <rPr>
@@ -2612,6 +2612,30 @@
   </si>
   <si>
     <t>NeurIPS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-Raptor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-Raptor: LLM-Powered Semi-Structured Table Question Answering</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2508.18190</t>
+  </si>
+  <si>
+    <t>SIGMOD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cracking SQL Barriers: An LLM-based Dialect Translation System</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3725278</t>
+  </si>
+  <si>
+    <t>CrackSQL</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2619,7 +2643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2734,8 +2758,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3020,6 +3052,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6425D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3507,7 +3545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3759,6 +3797,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4084,10 +4140,10 @@
   <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -4341,8 +4397,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="54" t="s">
         <v>164</v>
       </c>
@@ -6832,9 +6888,9 @@
     <hyperlink ref="E44" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="E3" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="E12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E43" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E13" r:id="rId53" xr:uid="{11FCC11B-99E2-6B4C-A9D4-EECA298CBFF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6845,11 +6901,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K251"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -7007,8 +7063,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="54" t="s">
         <v>291</v>
       </c>
@@ -7027,39 +7083,39 @@
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="27" t="s">
-        <v>166</v>
-      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="27">
-        <v>2024</v>
+        <v>487</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="89">
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>166</v>
+      </c>
       <c r="C10" s="54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="G10" s="27">
         <v>2024</v>
@@ -7069,117 +7125,117 @@
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
       <c r="C11" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D12" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F12" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G12" s="27">
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:7" ht="19" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C13" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="G13" s="16">
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:7" ht="19" customHeight="1">
+      <c r="A14" s="3"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>147</v>
+      <c r="C14" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="G14" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14">
-      <c r="A15" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="16"/>
       <c r="C15" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="G15" s="16">
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" customHeight="1">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:7" ht="14">
+      <c r="A16" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G16" s="16">
         <v>2025</v>
@@ -7188,17 +7244,17 @@
     <row r="17" spans="1:11" ht="19" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="58" t="s">
-        <v>313</v>
+      <c r="C17" s="57" t="s">
+        <v>310</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G17" s="16">
         <v>2025</v>
@@ -7207,17 +7263,17 @@
     <row r="18" spans="1:11" ht="19" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="57" t="s">
-        <v>316</v>
+      <c r="C18" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -7225,58 +7281,58 @@
     </row>
     <row r="19" spans="1:11" ht="19" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="35">
-        <v>2024</v>
+      <c r="G19" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="C20" s="59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="G20" s="35">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35"/>
       <c r="C21" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G21" s="35">
         <v>2025</v>
@@ -7284,39 +7340,39 @@
     </row>
     <row r="22" spans="1:11" ht="19" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2024</v>
+      <c r="B22" s="35"/>
+      <c r="C22" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="35">
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="19" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C23" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G23" s="1">
         <v>2024</v>
@@ -7325,43 +7381,39 @@
     <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="61" t="s">
-        <v>330</v>
+      <c r="C24" s="60" t="s">
+        <v>328</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="1:11" ht="19" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="60" t="s">
-        <v>332</v>
+      <c r="C25" s="61" t="s">
+        <v>330</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="G25" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
@@ -7371,36 +7423,40 @@
     <row r="26" spans="1:11" ht="19" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="61" t="s">
-        <v>334</v>
+      <c r="C26" s="60" t="s">
+        <v>332</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="G26" s="1">
         <v>2025</v>
       </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="1:11" ht="19" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="60" t="s">
-        <v>337</v>
+      <c r="C27" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
@@ -7410,13 +7466,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>137</v>
@@ -7426,61 +7482,61 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="19" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C30" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F30" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2024</v>
-      </c>
-    </row>
     <row r="31" spans="1:11" ht="19" customHeight="1">
-      <c r="A31" s="3"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="7"/>
       <c r="C31" s="62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="G31" s="7">
         <v>2024</v>
@@ -7489,17 +7545,17 @@
     <row r="32" spans="1:11" ht="19" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="63" t="s">
-        <v>347</v>
+      <c r="C32" s="62" t="s">
+        <v>345</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7">
         <v>2024</v>
@@ -7508,134 +7564,134 @@
     <row r="33" spans="1:8" ht="19" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19" customHeight="1">
+      <c r="A34" s="84"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F34" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>2025</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="10">
-        <v>2023</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="10">
-        <v>2024</v>
+      <c r="B35" s="7"/>
+      <c r="C35" s="73" t="s">
+        <v>481</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="G35" s="7">
+        <v>2026</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="C36" s="65" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="G36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>2023</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="19" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="65" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="G37" s="10">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="G38" s="10">
-        <v>2025</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="19" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="64" t="s">
-        <v>362</v>
+      <c r="C39" s="65" t="s">
+        <v>357</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="G39" s="10">
         <v>2025</v>
@@ -7645,16 +7701,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="65" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G40" s="10">
         <v>2025</v>
@@ -7662,155 +7718,155 @@
     </row>
     <row r="41" spans="1:8" ht="19" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="74" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="G41" s="11">
-        <v>2024</v>
+      <c r="B41" s="10"/>
+      <c r="C41" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2025</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="11">
-        <v>2024</v>
+      <c r="B42" s="10"/>
+      <c r="C42" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2025</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="C43" s="74" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>277</v>
       </c>
       <c r="G43" s="11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
       <c r="C44" s="75" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="G44" s="11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="G45" s="16">
-        <v>2023</v>
+      <c r="B45" s="11"/>
+      <c r="C45" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2025</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="G46" s="16">
-        <v>2024</v>
+      <c r="B46" s="11"/>
+      <c r="C46" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2025</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="57" t="s">
-        <v>378</v>
+      <c r="B47" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>374</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>194</v>
+        <v>480</v>
       </c>
       <c r="G47" s="16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
       <c r="C48" s="58" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="G48" s="16">
         <v>2024</v>
@@ -7819,14 +7875,14 @@
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="58" t="s">
-        <v>382</v>
+      <c r="C49" s="57" t="s">
+        <v>378</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>194</v>
@@ -7839,56 +7895,56 @@
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
       <c r="C50" s="58" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="G50" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="57" t="s">
-        <v>386</v>
+      <c r="C51" s="58" t="s">
+        <v>382</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="G51" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="19" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="57" t="s">
-        <v>388</v>
+      <c r="C52" s="58" t="s">
+        <v>384</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="33">
+        <v>147</v>
+      </c>
+      <c r="G52" s="16">
         <v>2025</v>
       </c>
     </row>
@@ -7896,75 +7952,75 @@
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="16">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F55" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G55" s="33">
         <v>2025</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="19" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="17" t="s">
+    <row r="56" spans="1:7" ht="19" customHeight="1">
+      <c r="A56" s="42"/>
+      <c r="B56" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C56" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E56" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F56" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="G54" s="43">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="19" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="76" t="s">
-        <v>394</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="G55" s="43">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="G56" s="43">
         <v>2024</v>
@@ -7973,74 +8029,74 @@
     <row r="57" spans="1:7" ht="19" customHeight="1">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="68" t="s">
-        <v>399</v>
+      <c r="C57" s="76" t="s">
+        <v>394</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="G57" s="43">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19" customHeight="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="68" t="s">
-        <v>401</v>
+      <c r="C58" s="76" t="s">
+        <v>397</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="G58" s="43">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19" customHeight="1">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="76" t="s">
-        <v>403</v>
+      <c r="C59" s="68" t="s">
+        <v>399</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="G59" s="43">
         <v>2025</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14">
+    <row r="60" spans="1:7" ht="19" customHeight="1">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="76" t="s">
-        <v>405</v>
+      <c r="C60" s="68" t="s">
+        <v>401</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="G60" s="43">
         <v>2025</v>
@@ -8050,13 +8106,13 @@
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
       <c r="C61" s="76" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>266</v>
@@ -8069,13 +8125,13 @@
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
       <c r="C62" s="76" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>241</v>
@@ -8084,32 +8140,52 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:7">
+    <row r="63" spans="1:7" ht="14">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" s="43">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="76" t="s">
+        <v>409</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G64" s="43">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="72"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="47"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
@@ -8142,19 +8218,19 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="72"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="4"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="47"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="72"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="4"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="47"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4"/>
@@ -9785,70 +9861,89 @@
       <c r="F251" s="37"/>
       <c r="G251" s="4"/>
     </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="72"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="37"/>
+      <c r="G253" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E59" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E56" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E43" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E51" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E27" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E47" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E13" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E57" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E54" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E60" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E48" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E37" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E41" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="E5" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E40" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="E11" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="E6" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="E4" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E61" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E58" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="E53" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="E31" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E49" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E2" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E50" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="E21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="E28" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="E9" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="E39" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="E30" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="E16" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="E3" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="E45" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="E10" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E52" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="E7" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E46" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="E38" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E44" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E19" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E32" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E36" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="E33" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="E35" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E29" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E62" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E26" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E61" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E58" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E45" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E53" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E44" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E59" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E56" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E16" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E62" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E50" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E25" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E39" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E19" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E42" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E12" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E4" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="E63" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E60" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E55" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E32" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E51" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E2" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E15" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E52" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E29" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="E10" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="E41" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="E31" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E17" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E3" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="E47" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E11" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E54" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E7" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E48" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E40" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E46" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E20" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E57" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E33" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E38" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E37" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E30" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E64" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E27" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E34" r:id="rId60" xr:uid="{7EC1841A-D2E4-4D40-85F8-574AF7C9ED0F}"/>
+    <hyperlink ref="E8" r:id="rId61" xr:uid="{5F14C7A6-B6D6-9542-8B33-155349E77E8F}"/>
+    <hyperlink ref="E9" r:id="rId62" xr:uid="{AF98066F-1603-B94A-BA89-552597EAD77F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9875,32 +9970,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="90" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="3" spans="1:6" ht="14">
       <c r="A3" s="37">

--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700975CE-AC5C-6248-9D15-E7C4C34CBF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1E534-A871-AA42-B87E-1B9787A341C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2300" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,9 +2253,6 @@
     <t>ReFoRCE</t>
   </si>
   <si>
-    <t>ReFoRCE: A Text-to-SQL Agent with with Self-Refinement, Consensus Enforcement, and Column Exploration</t>
-  </si>
-  <si>
     <t>DeepEye-SQL</t>
   </si>
   <si>
@@ -2636,6 +2633,10 @@
   </si>
   <si>
     <t>CrackSQL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReFoRCE: A Text-to-SQL Agent with Self-Refinement, Consensus Enforcement, and Column Exploration</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6904,8 +6905,8 @@
   <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -7085,13 +7086,13 @@
       <c r="A9" s="3"/>
       <c r="B9" s="27"/>
       <c r="C9" s="54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D9" s="87" t="s">
+        <v>484</v>
+      </c>
+      <c r="E9" s="88" t="s">
         <v>485</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>486</v>
       </c>
       <c r="F9" s="89" t="s">
         <v>140</v>
@@ -7603,16 +7604,16 @@
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="40" t="s">
         <v>483</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>484</v>
       </c>
       <c r="G35" s="7">
         <v>2026</v>
@@ -7723,7 +7724,7 @@
         <v>362</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>113</v>
@@ -7739,10 +7740,10 @@
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>53</v>
@@ -7760,10 +7761,10 @@
         <v>235</v>
       </c>
       <c r="C43" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="38" t="s">
         <v>366</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>367</v>
       </c>
       <c r="E43" s="38" t="s">
         <v>54</v>
@@ -7779,10 +7780,10 @@
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
       <c r="C44" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>368</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>369</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>55</v>
@@ -7798,10 +7799,10 @@
       <c r="A45" s="3"/>
       <c r="B45" s="11"/>
       <c r="C45" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="38" t="s">
         <v>370</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>371</v>
       </c>
       <c r="E45" s="38" t="s">
         <v>56</v>
@@ -7817,10 +7818,10 @@
       <c r="A46" s="3"/>
       <c r="B46" s="11"/>
       <c r="C46" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="38" t="s">
         <v>372</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>373</v>
       </c>
       <c r="E46" s="38" t="s">
         <v>57</v>
@@ -7838,16 +7839,16 @@
         <v>247</v>
       </c>
       <c r="C47" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G47" s="16">
         <v>2023</v>
@@ -7857,10 +7858,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
       <c r="C48" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>75</v>
@@ -7876,10 +7877,10 @@
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
       <c r="C49" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>76</v>
@@ -7895,10 +7896,10 @@
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
       <c r="C50" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>77</v>
@@ -7914,10 +7915,10 @@
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
       <c r="C51" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>383</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>78</v>
@@ -7933,10 +7934,10 @@
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>79</v>
@@ -7952,10 +7953,10 @@
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>387</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>80</v>
@@ -7971,10 +7972,10 @@
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
       <c r="C54" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>81</v>
@@ -7990,10 +7991,10 @@
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>391</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>82</v>
@@ -8011,10 +8012,10 @@
         <v>261</v>
       </c>
       <c r="C56" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>392</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>67</v>
@@ -8030,16 +8031,16 @@
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
       <c r="C57" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>394</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G57" s="43">
         <v>2024</v>
@@ -8049,10 +8050,10 @@
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
       <c r="C58" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>398</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>69</v>
@@ -8068,10 +8069,10 @@
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
       <c r="C59" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>399</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>400</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>70</v>
@@ -8087,10 +8088,10 @@
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
       <c r="C60" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>401</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>402</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>71</v>
@@ -8106,10 +8107,10 @@
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
       <c r="C61" s="76" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>403</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>404</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>72</v>
@@ -8125,10 +8126,10 @@
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
       <c r="C62" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>406</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>73</v>
@@ -8144,10 +8145,10 @@
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
       <c r="C63" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>408</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>74</v>
@@ -8163,10 +8164,10 @@
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>410</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>91</v>
@@ -9986,7 +9987,7 @@
         <v>131</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1">
@@ -10002,19 +10003,19 @@
         <v>2025</v>
       </c>
       <c r="B3" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" customHeight="1">
@@ -10022,19 +10023,19 @@
         <v>2025</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14">
@@ -10042,19 +10043,19 @@
         <v>2025</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14">
@@ -10062,19 +10063,19 @@
         <v>2025</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14">
@@ -10082,19 +10083,19 @@
         <v>2025</v>
       </c>
       <c r="B7" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14">
@@ -10102,51 +10103,51 @@
         <v>2024</v>
       </c>
       <c r="B8" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14">
       <c r="A9" s="37"/>
       <c r="B9" s="77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
@@ -10155,62 +10156,62 @@
         <v>128</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" customHeight="1">
@@ -11769,13 +11770,13 @@
         <v>2025</v>
       </c>
       <c r="B2" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>445</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11783,13 +11784,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>447</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>448</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11797,10 +11798,10 @@
         <v>2025</v>
       </c>
       <c r="B4" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>450</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>451</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>137</v>
@@ -11811,10 +11812,10 @@
         <v>2025</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>452</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>453</v>
       </c>
       <c r="D5" s="82" t="s">
         <v>137</v>
@@ -11825,10 +11826,10 @@
         <v>2025</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D6" s="82" t="s">
         <v>137</v>
@@ -11839,10 +11840,10 @@
         <v>2025</v>
       </c>
       <c r="B7" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="83" t="s">
         <v>455</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>456</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>137</v>
@@ -11853,10 +11854,10 @@
         <v>2025</v>
       </c>
       <c r="B8" s="82" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="83" t="s">
         <v>457</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>458</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>137</v>
@@ -11867,13 +11868,13 @@
         <v>2025</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C9" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>459</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11881,13 +11882,13 @@
         <v>2025</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>462</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11895,13 +11896,13 @@
         <v>2025</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>464</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>465</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11909,13 +11910,13 @@
         <v>2024</v>
       </c>
       <c r="B12" s="82" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="83" t="s">
         <v>467</v>
       </c>
-      <c r="C12" s="83" t="s">
-        <v>468</v>
-      </c>
       <c r="D12" s="82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11923,10 +11924,10 @@
         <v>2024</v>
       </c>
       <c r="B13" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>469</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>470</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>277</v>
@@ -11937,13 +11938,13 @@
         <v>2023</v>
       </c>
       <c r="B14" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>472</v>
-      </c>
       <c r="D14" s="82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11951,10 +11952,10 @@
         <v>2023</v>
       </c>
       <c r="B15" s="82" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>473</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>474</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>137</v>
@@ -11965,13 +11966,13 @@
         <v>2023</v>
       </c>
       <c r="B16" s="82" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>476</v>
-      </c>
       <c r="D16" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1E534-A871-AA42-B87E-1B9787A341C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BCA67-D6B6-4147-8051-BBE0B9F30737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2300" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="491">
   <si>
     <r>
       <rPr>
@@ -2637,6 +2637,17 @@
   </si>
   <si>
     <t>ReFoRCE: A Text-to-SQL Agent with Self-Refinement, Consensus Enforcement, and Column Exploration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentTune: An Agent-Based Large Language Model Framework for Database Knob Tuning</t>
+  </si>
+  <si>
+    <t>AgentTune</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3769758</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3546,7 +3557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3819,6 +3830,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="65" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6902,11 +6925,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -7024,118 +7047,118 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="27">
-        <v>2025</v>
+      <c r="A6" s="84"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="G6" s="86">
+        <v>2026</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="C7" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="G7" s="27">
         <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G8" s="27">
         <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="89">
+        <v>291</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="27">
         <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="27" t="s">
-        <v>166</v>
-      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="27">
-        <v>2024</v>
+        <v>486</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="89">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="27" t="s">
+        <v>166</v>
+      </c>
       <c r="C11" s="54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="G11" s="27">
         <v>2024</v>
@@ -7145,117 +7168,117 @@
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F13" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G13" s="27">
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:7" ht="19" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C14" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F14" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="G14" s="16">
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:7" ht="19" customHeight="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>147</v>
+      <c r="C15" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="G15" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14">
-      <c r="A16" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="G16" s="16">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19" customHeight="1">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:11" ht="14">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B17" s="16"/>
       <c r="C17" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G17" s="16">
         <v>2025</v>
@@ -7264,17 +7287,17 @@
     <row r="18" spans="1:11" ht="19" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="58" t="s">
-        <v>313</v>
+      <c r="C18" s="57" t="s">
+        <v>310</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -7283,17 +7306,17 @@
     <row r="19" spans="1:11" ht="19" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="57" t="s">
-        <v>316</v>
+      <c r="C19" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="G19" s="16">
         <v>2025</v>
@@ -7301,58 +7324,58 @@
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="35">
-        <v>2024</v>
+      <c r="G20" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="C21" s="59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="G21" s="35">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
       <c r="C22" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G22" s="35">
         <v>2025</v>
@@ -7360,39 +7383,39 @@
     </row>
     <row r="23" spans="1:11" ht="19" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2024</v>
+      <c r="B23" s="35"/>
+      <c r="C23" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="35">
+        <v>2025</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C24" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
@@ -7401,43 +7424,39 @@
     <row r="25" spans="1:11" ht="19" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="61" t="s">
-        <v>330</v>
+      <c r="C25" s="60" t="s">
+        <v>328</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1">
         <v>2024</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:11" ht="19" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="60" t="s">
-        <v>332</v>
+      <c r="C26" s="61" t="s">
+        <v>330</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="G26" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
@@ -7447,36 +7466,40 @@
     <row r="27" spans="1:11" ht="19" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="61" t="s">
-        <v>334</v>
+      <c r="C27" s="60" t="s">
+        <v>332</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
       </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="1:11" ht="19" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="60" t="s">
-        <v>337</v>
+      <c r="C28" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="G28" s="1">
         <v>2025</v>
@@ -7486,13 +7509,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>137</v>
@@ -7502,61 +7525,61 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="19" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C31" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F31" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="7">
-        <v>2024</v>
-      </c>
-    </row>
     <row r="32" spans="1:11" ht="19" customHeight="1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="G32" s="7">
         <v>2024</v>
@@ -7565,153 +7588,153 @@
     <row r="33" spans="1:8" ht="19" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="63" t="s">
-        <v>347</v>
+      <c r="C33" s="62" t="s">
+        <v>345</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7">
         <v>2024</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19" customHeight="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="73" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
+      <c r="A35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F35" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>2025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="73" t="s">
-        <v>480</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2026</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G36" s="10">
-        <v>2023</v>
+      <c r="B36" s="7"/>
+      <c r="C36" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2026</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="C37" s="65" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="G37" s="10">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="G38" s="10">
         <v>2024</v>
       </c>
-      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="19" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="G39" s="10">
-        <v>2025</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="19" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="65" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="G40" s="10">
         <v>2025</v>
@@ -7720,17 +7743,17 @@
     <row r="41" spans="1:8" ht="19" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="64" t="s">
-        <v>362</v>
+      <c r="C41" s="65" t="s">
+        <v>360</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G41" s="10">
         <v>2025</v>
@@ -7739,14 +7762,14 @@
     <row r="42" spans="1:8" ht="19" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="65" t="s">
-        <v>363</v>
+      <c r="C42" s="64" t="s">
+        <v>362</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>137</v>
@@ -7757,39 +7780,39 @@
     </row>
     <row r="43" spans="1:8" ht="19" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" s="11">
-        <v>2024</v>
+      <c r="B43" s="10"/>
+      <c r="C43" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2025</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="75" t="s">
-        <v>367</v>
+      <c r="B44" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>365</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G44" s="11">
         <v>2024</v>
@@ -7798,36 +7821,36 @@
     <row r="45" spans="1:8" ht="19" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="74" t="s">
-        <v>369</v>
+      <c r="C45" s="75" t="s">
+        <v>367</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="G45" s="11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="75" t="s">
-        <v>371</v>
+      <c r="C46" s="74" t="s">
+        <v>369</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G46" s="11">
         <v>2025</v>
@@ -7835,58 +7858,58 @@
     </row>
     <row r="47" spans="1:8" ht="19" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="G47" s="16">
-        <v>2023</v>
+      <c r="B47" s="11"/>
+      <c r="C47" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2025</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="C48" s="58" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="G48" s="16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="57" t="s">
-        <v>377</v>
+      <c r="C49" s="58" t="s">
+        <v>375</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="G49" s="16">
         <v>2024</v>
@@ -7895,17 +7918,17 @@
     <row r="50" spans="1:7" ht="19" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="58" t="s">
-        <v>379</v>
+      <c r="C50" s="57" t="s">
+        <v>377</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G50" s="16">
         <v>2024</v>
@@ -7915,16 +7938,16 @@
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
       <c r="C51" s="58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="G51" s="16">
         <v>2024</v>
@@ -7934,32 +7957,32 @@
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="G52" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="57" t="s">
-        <v>385</v>
+      <c r="C53" s="58" t="s">
+        <v>383</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>147</v>
@@ -7972,18 +7995,18 @@
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
       <c r="C54" s="57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="33">
+        <v>147</v>
+      </c>
+      <c r="G54" s="16">
         <v>2025</v>
       </c>
     </row>
@@ -7991,13 +8014,13 @@
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>137</v>
@@ -8007,94 +8030,94 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="19" customHeight="1">
-      <c r="A56" s="42"/>
-      <c r="B56" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="43">
-        <v>2024</v>
+      <c r="A56" s="3"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="33">
+        <v>2025</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19" customHeight="1">
       <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="76" t="s">
-        <v>393</v>
+      <c r="B57" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>391</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>395</v>
+        <v>67</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="G57" s="43">
         <v>2024</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14">
+    <row r="58" spans="1:7" ht="19" customHeight="1">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
       <c r="C58" s="76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>266</v>
+        <v>395</v>
       </c>
       <c r="G58" s="43">
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19" customHeight="1">
+    <row r="59" spans="1:7" ht="14">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="68" t="s">
-        <v>398</v>
+      <c r="C59" s="76" t="s">
+        <v>396</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="G59" s="43">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="19" customHeight="1">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
       <c r="C60" s="68" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>137</v>
@@ -8103,20 +8126,20 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14">
+    <row r="61" spans="1:7" ht="19" customHeight="1">
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="76" t="s">
-        <v>402</v>
+      <c r="C61" s="68" t="s">
+        <v>400</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="G61" s="43">
         <v>2025</v>
@@ -8126,16 +8149,16 @@
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
       <c r="C62" s="76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G62" s="43">
         <v>2025</v>
@@ -8145,16 +8168,16 @@
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
       <c r="C63" s="76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G63" s="43">
         <v>2025</v>
@@ -8164,38 +8187,48 @@
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="76" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G64" s="43">
         <v>2025</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7">
+    <row r="65" spans="1:7" ht="14">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65" s="43">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="72"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="47"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
@@ -8237,10 +8270,10 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="72"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="4"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="47"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
@@ -9880,71 +9913,81 @@
       <c r="F253" s="37"/>
       <c r="G253" s="4"/>
     </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="72"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="37"/>
+      <c r="G254" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E61" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E58" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E45" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E53" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E44" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E59" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E56" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="E16" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E62" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E50" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E25" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E39" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E43" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E19" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E36" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E62" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E59" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E46" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E24" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E54" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E29" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E45" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E60" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E57" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E63" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E40" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E44" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E20" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E37" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="E5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E42" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="E12" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="E6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E43" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E13" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E7" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
     <hyperlink ref="E4" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E63" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E60" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="E55" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="E32" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E51" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E61" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E56" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E33" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E52" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="E2" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E15" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E52" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="E29" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="E10" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="E41" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="E31" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="E17" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E16" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E23" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E30" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="E11" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="E32" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E18" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="E3" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="E47" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="E11" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E54" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="E7" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E48" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="E40" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E46" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E20" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E57" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E33" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E38" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="E37" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E30" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E64" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E27" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="E34" r:id="rId60" xr:uid="{7EC1841A-D2E4-4D40-85F8-574AF7C9ED0F}"/>
-    <hyperlink ref="E8" r:id="rId61" xr:uid="{5F14C7A6-B6D6-9542-8B33-155349E77E8F}"/>
-    <hyperlink ref="E9" r:id="rId62" xr:uid="{AF98066F-1603-B94A-BA89-552597EAD77F}"/>
+    <hyperlink ref="E48" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E12" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E8" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E49" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E41" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E47" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E21" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E58" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E34" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E39" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E38" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E31" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E65" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E28" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E35" r:id="rId60" xr:uid="{7EC1841A-D2E4-4D40-85F8-574AF7C9ED0F}"/>
+    <hyperlink ref="E9" r:id="rId61" xr:uid="{5F14C7A6-B6D6-9542-8B33-155349E77E8F}"/>
+    <hyperlink ref="E10" r:id="rId62" xr:uid="{AF98066F-1603-B94A-BA89-552597EAD77F}"/>
+    <hyperlink ref="E6" r:id="rId63" xr:uid="{C9881E59-5194-2E4A-BA83-759370DAD6ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BCA67-D6B6-4147-8051-BBE0B9F30737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBBE493-DCDA-3D46-B1F7-8ECD92A31A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="492">
   <si>
     <r>
       <rPr>
@@ -230,18 +230,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>https://dl.acm.org/doi/abs/10.1007/s00778-025-00912-0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>https://arxiv.org/abs/2401.18059</t>
     </r>
   </si>
@@ -1707,9 +1695,6 @@
     <t>UniDM</t>
   </si>
   <si>
-    <t>UNIDM: A UNIFIED FRAMEWORK FOR DATA MANIPULATION WITH LARGE LANGUAGE MODELS</t>
-  </si>
-  <si>
     <t>MLSys</t>
   </si>
   <si>
@@ -1891,9 +1876,6 @@
   </si>
   <si>
     <t>Prompt4Vis</t>
-  </si>
-  <si>
-    <t>prompt4vis: prompting large language models with example mining for tabular data visualization: Prompt4Vis: prompting large language models with example mining</t>
   </si>
   <si>
     <t xml:space="preserve"> Step-Text2Vis</t>
@@ -2648,6 +2630,22 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/10.1145/3769758</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt4Vis: Prompting Large Language Models with Example Mining for Tabular Data Visualization</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLDBJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unidm: A unified framework for data manipulation with large language models</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00778-025-00912-0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3557,7 +3555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3828,9 +3826,6 @@
     <xf numFmtId="0" fontId="15" fillId="58" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3842,6 +3837,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="65" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4163,11 +4164,11 @@
   </sheetPr>
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -4182,45 +4183,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14">
       <c r="A1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14">
       <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>137</v>
       </c>
       <c r="G2" s="27">
         <v>2024</v>
@@ -4230,16 +4231,16 @@
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>139</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="27">
         <v>2025</v>
@@ -4249,16 +4250,16 @@
       <c r="A4" s="3"/>
       <c r="B4" s="27"/>
       <c r="C4" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="G4" s="27">
         <v>2024</v>
@@ -4266,20 +4267,20 @@
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>147</v>
       </c>
       <c r="G5" s="27">
         <v>2024</v>
@@ -4289,16 +4290,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="27"/>
       <c r="C6" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="27">
         <v>2025</v>
@@ -4307,19 +4308,19 @@
     <row r="7" spans="1:7" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="D7" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>153</v>
       </c>
       <c r="G7" s="27">
         <v>2024</v>
@@ -4329,16 +4330,16 @@
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>155</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="27">
         <v>2024</v>
@@ -4348,16 +4349,16 @@
       <c r="A9" s="3"/>
       <c r="B9" s="27"/>
       <c r="C9" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="27">
         <v>2024</v>
@@ -4367,16 +4368,16 @@
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="E10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27">
         <v>2025</v>
@@ -4386,16 +4387,16 @@
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
       <c r="C11" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>161</v>
-      </c>
       <c r="E11" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="27">
         <v>2025</v>
@@ -4405,16 +4406,16 @@
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>163</v>
-      </c>
       <c r="E12" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="27">
         <v>2025</v>
@@ -4424,16 +4425,16 @@
       <c r="A13" s="84"/>
       <c r="B13" s="86"/>
       <c r="C13" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="27">
         <v>2025</v>
@@ -4442,19 +4443,19 @@
     <row r="14" spans="1:7" ht="19" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="D14" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="27">
         <v>2024</v>
@@ -4464,16 +4465,16 @@
       <c r="A15" s="3"/>
       <c r="B15" s="27"/>
       <c r="C15" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="27">
         <v>2025</v>
@@ -4481,22 +4482,22 @@
     </row>
     <row r="16" spans="1:7" ht="14">
       <c r="A16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="D16" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="16">
         <v>2022</v>
@@ -4504,20 +4505,20 @@
     </row>
     <row r="17" spans="1:7" ht="14">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="G17" s="16">
         <v>2024</v>
@@ -4527,16 +4528,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
       <c r="C18" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -4546,16 +4547,16 @@
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
       <c r="C19" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="G19" s="16">
         <v>2024</v>
@@ -4565,16 +4566,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
       <c r="C20" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="G20" s="16">
         <v>2024</v>
@@ -4583,19 +4584,19 @@
     <row r="21" spans="1:7" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>188</v>
-      </c>
       <c r="E21" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="35">
         <v>2024</v>
@@ -4605,16 +4606,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
       <c r="C22" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="G22" s="35">
         <v>2024</v>
@@ -4624,16 +4625,16 @@
       <c r="A23" s="3"/>
       <c r="B23" s="35"/>
       <c r="C23" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>192</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>194</v>
       </c>
       <c r="G23" s="35">
         <v>2024</v>
@@ -4642,19 +4643,19 @@
     <row r="24" spans="1:7" ht="25" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
@@ -4664,16 +4665,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1">
         <v>2024</v>
@@ -4683,16 +4684,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G26" s="1">
         <v>2024</v>
@@ -4702,16 +4703,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
@@ -4721,16 +4722,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="1">
         <v>2025</v>
@@ -4740,16 +4741,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1">
         <v>2025</v>
@@ -4759,16 +4760,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G30" s="1">
         <v>2025</v>
@@ -4776,22 +4777,22 @@
     </row>
     <row r="31" spans="1:7" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7">
         <v>2023</v>
@@ -4801,16 +4802,16 @@
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7">
         <v>2023</v>
@@ -4820,16 +4821,16 @@
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
       <c r="C33" s="62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7">
         <v>2024</v>
@@ -4839,16 +4840,16 @@
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7">
         <v>2024</v>
@@ -4857,19 +4858,19 @@
     <row r="35" spans="1:7" ht="19" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G35" s="10">
         <v>2023</v>
@@ -4879,16 +4880,16 @@
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="10">
         <v>2023</v>
@@ -4898,16 +4899,16 @@
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G37" s="10">
         <v>2023</v>
@@ -4917,16 +4918,16 @@
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="10">
         <v>2024</v>
@@ -4935,19 +4936,19 @@
     <row r="39" spans="1:7" ht="19" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G39" s="12">
         <v>2023</v>
@@ -4957,16 +4958,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="11"/>
       <c r="C40" s="66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G40" s="12">
         <v>2024</v>
@@ -4976,16 +4977,16 @@
       <c r="A41" s="3"/>
       <c r="B41" s="11"/>
       <c r="C41" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>16</v>
+        <v>488</v>
+      </c>
+      <c r="E41" s="95" t="s">
+        <v>491</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="G41" s="12">
         <v>2025</v>
@@ -4995,16 +4996,16 @@
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G42" s="12">
         <v>2025</v>
@@ -5013,19 +5014,19 @@
     <row r="43" spans="1:7" ht="19" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G43" s="16">
         <v>2024</v>
@@ -5035,16 +5036,16 @@
       <c r="A44" s="3"/>
       <c r="B44" s="16"/>
       <c r="C44" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G44" s="16">
         <v>2024</v>
@@ -5054,16 +5055,16 @@
       <c r="A45" s="3"/>
       <c r="B45" s="16"/>
       <c r="C45" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G45" s="16">
         <v>2024</v>
@@ -5073,16 +5074,16 @@
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
       <c r="C46" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G46" s="16">
         <v>2024</v>
@@ -5092,16 +5093,16 @@
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
       <c r="C47" s="57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G47" s="16">
         <v>2025</v>
@@ -5111,16 +5112,16 @@
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
       <c r="C48" s="57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G48" s="16">
         <v>2025</v>
@@ -5129,19 +5130,19 @@
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G49" s="17">
         <v>2023</v>
@@ -5151,16 +5152,16 @@
       <c r="A50" s="3"/>
       <c r="B50" s="17"/>
       <c r="C50" s="68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G50" s="17">
         <v>2024</v>
@@ -5170,16 +5171,16 @@
       <c r="A51" s="3"/>
       <c r="B51" s="17"/>
       <c r="C51" s="68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G51" s="17">
         <v>2025</v>
@@ -5189,16 +5190,16 @@
       <c r="A52" s="3"/>
       <c r="B52" s="17"/>
       <c r="C52" s="68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G52" s="17">
         <v>2025</v>
@@ -5208,16 +5209,16 @@
       <c r="A53" s="22"/>
       <c r="B53" s="26"/>
       <c r="C53" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G53" s="25">
         <v>2025</v>
@@ -5227,16 +5228,16 @@
       <c r="A54" s="22"/>
       <c r="B54" s="20"/>
       <c r="C54" s="70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G54" s="20">
         <v>2025</v>
@@ -6927,8 +6928,8 @@
   </sheetPr>
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6943,45 +6944,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14">
       <c r="A1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" s="55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="27">
         <v>2024</v>
@@ -6991,16 +6992,16 @@
       <c r="A3" s="8"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="27">
         <v>2025</v>
@@ -7008,20 +7009,20 @@
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="27">
         <v>2025</v>
@@ -7031,16 +7032,16 @@
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
       <c r="C5" s="54" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="27">
         <v>2025</v>
@@ -7049,17 +7050,17 @@
     <row r="6" spans="1:7" ht="19" customHeight="1">
       <c r="A6" s="84"/>
       <c r="B6" s="86"/>
-      <c r="C6" s="91" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>490</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>483</v>
+      <c r="C6" s="90" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>480</v>
       </c>
       <c r="G6" s="86">
         <v>2026</v>
@@ -7068,19 +7069,19 @@
     <row r="7" spans="1:7" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G7" s="27">
         <v>2025</v>
@@ -7090,16 +7091,16 @@
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="27">
         <v>2025</v>
@@ -7109,16 +7110,16 @@
       <c r="A9" s="84"/>
       <c r="B9" s="86"/>
       <c r="C9" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="27">
         <v>2025</v>
@@ -7128,16 +7129,16 @@
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="54" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="89">
         <v>2025</v>
@@ -7146,19 +7147,19 @@
     <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G11" s="27">
         <v>2024</v>
@@ -7168,16 +7169,16 @@
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="27">
         <v>2024</v>
@@ -7187,16 +7188,16 @@
       <c r="A13" s="3"/>
       <c r="B13" s="27"/>
       <c r="C13" s="54" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="27">
         <v>2025</v>
@@ -7204,22 +7205,22 @@
     </row>
     <row r="14" spans="1:7" ht="19" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="C14" s="58" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="16">
         <v>2024</v>
@@ -7229,16 +7230,16 @@
       <c r="A15" s="3"/>
       <c r="B15" s="16"/>
       <c r="C15" s="58" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G15" s="16">
         <v>2024</v>
@@ -7248,16 +7249,16 @@
       <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" s="57" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="16">
         <v>2025</v>
@@ -7265,20 +7266,20 @@
     </row>
     <row r="17" spans="1:11" ht="14">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G17" s="16">
         <v>2025</v>
@@ -7288,16 +7289,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
       <c r="C18" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -7307,16 +7308,16 @@
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
       <c r="C19" s="58" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G19" s="16">
         <v>2025</v>
@@ -7326,16 +7327,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
       <c r="C20" s="57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="16">
         <v>2025</v>
@@ -7344,19 +7345,19 @@
     <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="35">
         <v>2024</v>
@@ -7366,16 +7367,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
       <c r="C22" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G22" s="35">
         <v>2025</v>
@@ -7385,16 +7386,16 @@
       <c r="A23" s="3"/>
       <c r="B23" s="35"/>
       <c r="C23" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G23" s="35">
         <v>2025</v>
@@ -7403,19 +7404,19 @@
     <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
@@ -7425,16 +7426,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="60" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1">
         <v>2024</v>
@@ -7444,16 +7445,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="1">
         <v>2024</v>
@@ -7467,16 +7468,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
@@ -7490,16 +7491,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G28" s="1">
         <v>2025</v>
@@ -7509,16 +7510,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="60" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1">
         <v>2025</v>
@@ -7528,16 +7529,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="60" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1">
         <v>2025</v>
@@ -7545,22 +7546,22 @@
     </row>
     <row r="31" spans="1:11" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7">
         <v>2023</v>
@@ -7570,16 +7571,16 @@
       <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="62" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="7">
         <v>2024</v>
@@ -7589,16 +7590,16 @@
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
       <c r="C33" s="62" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G33" s="7">
         <v>2024</v>
@@ -7608,16 +7609,16 @@
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="63" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="7">
         <v>2024</v>
@@ -7627,16 +7628,16 @@
       <c r="A35" s="84"/>
       <c r="B35" s="85"/>
       <c r="C35" s="73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G35" s="7">
         <v>2025</v>
@@ -7646,16 +7647,16 @@
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>480</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>483</v>
       </c>
       <c r="G36" s="7">
         <v>2026</v>
@@ -7664,19 +7665,19 @@
     <row r="37" spans="1:8" ht="19" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G37" s="10">
         <v>2023</v>
@@ -7686,16 +7687,16 @@
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="10">
         <v>2024</v>
@@ -7705,16 +7706,16 @@
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G39" s="10">
         <v>2024</v>
@@ -7725,16 +7726,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G40" s="10">
         <v>2025</v>
@@ -7744,16 +7745,16 @@
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="65" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="10">
         <v>2025</v>
@@ -7763,16 +7764,16 @@
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="10">
         <v>2025</v>
@@ -7782,16 +7783,16 @@
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
       <c r="C43" s="65" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="10">
         <v>2025</v>
@@ -7800,19 +7801,19 @@
     <row r="44" spans="1:8" ht="19" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G44" s="11">
         <v>2024</v>
@@ -7822,16 +7823,16 @@
       <c r="A45" s="3"/>
       <c r="B45" s="11"/>
       <c r="C45" s="75" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G45" s="11">
         <v>2024</v>
@@ -7841,16 +7842,16 @@
       <c r="A46" s="3"/>
       <c r="B46" s="11"/>
       <c r="C46" s="74" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G46" s="11">
         <v>2025</v>
@@ -7860,16 +7861,16 @@
       <c r="A47" s="3"/>
       <c r="B47" s="11"/>
       <c r="C47" s="75" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G47" s="11">
         <v>2025</v>
@@ -7878,19 +7879,19 @@
     <row r="48" spans="1:8" ht="19" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G48" s="16">
         <v>2023</v>
@@ -7900,16 +7901,16 @@
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
       <c r="C49" s="58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G49" s="16">
         <v>2024</v>
@@ -7919,16 +7920,16 @@
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
       <c r="C50" s="57" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G50" s="16">
         <v>2024</v>
@@ -7938,16 +7939,16 @@
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
       <c r="C51" s="58" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G51" s="16">
         <v>2024</v>
@@ -7957,16 +7958,16 @@
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="58" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G52" s="16">
         <v>2024</v>
@@ -7976,16 +7977,16 @@
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="58" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="16">
         <v>2025</v>
@@ -7995,16 +7996,16 @@
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
       <c r="C54" s="57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" s="16">
         <v>2025</v>
@@ -8014,16 +8015,16 @@
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="57" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" s="33">
         <v>2025</v>
@@ -8033,16 +8034,16 @@
       <c r="A56" s="3"/>
       <c r="B56" s="16"/>
       <c r="C56" s="57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G56" s="33">
         <v>2025</v>
@@ -8051,19 +8052,19 @@
     <row r="57" spans="1:7" ht="19" customHeight="1">
       <c r="A57" s="42"/>
       <c r="B57" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G57" s="43">
         <v>2024</v>
@@ -8073,16 +8074,16 @@
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
       <c r="C58" s="76" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G58" s="43">
         <v>2024</v>
@@ -8092,16 +8093,16 @@
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
       <c r="C59" s="76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G59" s="43">
         <v>2024</v>
@@ -8111,16 +8112,16 @@
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
       <c r="C60" s="68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60" s="43">
         <v>2025</v>
@@ -8130,16 +8131,16 @@
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
       <c r="C61" s="68" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61" s="43">
         <v>2025</v>
@@ -8149,16 +8150,16 @@
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
       <c r="C62" s="76" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G62" s="43">
         <v>2025</v>
@@ -8168,16 +8169,16 @@
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
       <c r="C63" s="76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G63" s="43">
         <v>2025</v>
@@ -8187,16 +8188,16 @@
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="76" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G64" s="43">
         <v>2025</v>
@@ -8206,16 +8207,16 @@
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
       <c r="C65" s="76" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G65" s="43">
         <v>2025</v>
@@ -10014,51 +10015,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="90" t="s">
+      <c r="A1" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="D1" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="E1" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>410</v>
+      <c r="F1" s="94" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="1:6" ht="14">
       <c r="A3" s="37">
         <v>2025</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" customHeight="1">
@@ -10066,19 +10067,19 @@
         <v>2025</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14">
@@ -10086,19 +10087,19 @@
         <v>2025</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14">
@@ -10106,19 +10107,19 @@
         <v>2025</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14">
@@ -10126,19 +10127,19 @@
         <v>2025</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>439</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14">
@@ -10146,115 +10147,115 @@
         <v>2024</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14">
       <c r="A9" s="37"/>
       <c r="B9" s="77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="78" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" customHeight="1">
@@ -11796,16 +11797,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="81" t="s">
         <v>130</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11813,13 +11814,13 @@
         <v>2025</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11827,13 +11828,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11841,13 +11842,13 @@
         <v>2025</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11855,13 +11856,13 @@
         <v>2025</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11869,13 +11870,13 @@
         <v>2025</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11883,13 +11884,13 @@
         <v>2025</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11897,13 +11898,13 @@
         <v>2025</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11911,13 +11912,13 @@
         <v>2025</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11925,13 +11926,13 @@
         <v>2025</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11939,13 +11940,13 @@
         <v>2025</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11953,13 +11954,13 @@
         <v>2024</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11967,13 +11968,13 @@
         <v>2024</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11981,13 +11982,13 @@
         <v>2023</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11995,13 +11996,13 @@
         <v>2023</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12009,13 +12010,13 @@
         <v>2023</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBBE493-DCDA-3D46-B1F7-8ECD92A31A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3363BDD8-B60B-0443-964E-3BD15038B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="496">
   <si>
     <r>
       <rPr>
@@ -2646,6 +2646,20 @@
   </si>
   <si>
     <t>https://link.springer.com/article/10.1007/s00778-025-00912-0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiVis-Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multi-Agent Framework with Logic Rules for Reliable and Comprehensive Cross-Modal Data Visualization</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2601.18320</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3555,7 +3569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3838,11 +3852,17 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="65" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4162,13 +4182,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -4181,7 +4201,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="29" t="s">
         <v>125</v>
       </c>
@@ -4203,8 +4223,11 @@
       <c r="G1" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14">
+      <c r="H1" s="29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="8" t="s">
         <v>132</v>
       </c>
@@ -4227,7 +4250,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" customHeight="1">
+    <row r="3" spans="1:8" ht="19" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
@@ -4246,7 +4269,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" customHeight="1">
+    <row r="4" spans="1:8" ht="19" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="27"/>
       <c r="C4" s="55" t="s">
@@ -4265,7 +4288,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="3" t="s">
         <v>143</v>
       </c>
@@ -4286,7 +4309,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" customHeight="1">
+    <row r="6" spans="1:8" ht="19" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="27"/>
       <c r="C6" s="54" t="s">
@@ -4305,7 +4328,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" customHeight="1">
+    <row r="7" spans="1:8" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
         <v>149</v>
@@ -4326,7 +4349,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" customHeight="1">
+    <row r="8" spans="1:8" ht="19" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
@@ -4345,7 +4368,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1">
+    <row r="9" spans="1:8" ht="19" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="27"/>
       <c r="C9" s="55" t="s">
@@ -4364,7 +4387,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" customHeight="1">
+    <row r="10" spans="1:8" ht="19" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="55" t="s">
@@ -4383,7 +4406,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" customHeight="1">
+    <row r="11" spans="1:8" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
       <c r="C11" s="54" t="s">
@@ -4402,7 +4425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" customHeight="1">
+    <row r="12" spans="1:8" ht="19" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="56" t="s">
@@ -4421,7 +4444,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" customHeight="1">
+    <row r="13" spans="1:8" ht="19" customHeight="1">
       <c r="A13" s="84"/>
       <c r="B13" s="86"/>
       <c r="C13" s="54" t="s">
@@ -4440,7 +4463,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" customHeight="1">
+    <row r="14" spans="1:8" ht="19" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="27" t="s">
         <v>165</v>
@@ -4461,7 +4484,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" customHeight="1">
+    <row r="15" spans="1:8" ht="19" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="27"/>
       <c r="C15" s="54" t="s">
@@ -4480,7 +4503,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="8" t="s">
         <v>170</v>
       </c>
@@ -4982,7 +5005,7 @@
       <c r="D41" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="94" t="s">
         <v>491</v>
       </c>
       <c r="F41" s="12" t="s">
@@ -6926,11 +6949,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -6942,7 +6965,7 @@
     <col min="5" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="29" t="s">
         <v>125</v>
       </c>
@@ -6964,8 +6987,11 @@
       <c r="G1" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19" customHeight="1">
+      <c r="H1" s="29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>132</v>
       </c>
@@ -6988,7 +7014,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23" customHeight="1">
+    <row r="3" spans="1:8" ht="23" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
@@ -7007,7 +7033,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>
@@ -7028,7 +7054,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" customHeight="1">
+    <row r="5" spans="1:8" ht="19" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
       <c r="C5" s="54" t="s">
@@ -7047,7 +7073,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" customHeight="1">
+    <row r="6" spans="1:8" ht="19" customHeight="1">
       <c r="A6" s="84"/>
       <c r="B6" s="86"/>
       <c r="C6" s="90" t="s">
@@ -7065,8 +7091,11 @@
       <c r="G6" s="86">
         <v>2026</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" customHeight="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
         <v>149</v>
@@ -7087,7 +7116,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" customHeight="1">
+    <row r="8" spans="1:8" ht="19" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
@@ -7106,7 +7135,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1">
+    <row r="9" spans="1:8" ht="19" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="86"/>
       <c r="C9" s="54" t="s">
@@ -7125,7 +7154,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" customHeight="1">
+    <row r="10" spans="1:8" ht="19" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="54" t="s">
@@ -7144,7 +7173,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" customHeight="1">
+    <row r="11" spans="1:8" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27" t="s">
         <v>165</v>
@@ -7165,7 +7194,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" customHeight="1">
+    <row r="12" spans="1:8" ht="19" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="54" t="s">
@@ -7184,7 +7213,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" customHeight="1">
+    <row r="13" spans="1:8" ht="19" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="27"/>
       <c r="C13" s="54" t="s">
@@ -7203,7 +7232,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" customHeight="1">
+    <row r="14" spans="1:8" ht="19" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -7226,7 +7255,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" customHeight="1">
+    <row r="15" spans="1:8" ht="19" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="16"/>
       <c r="C15" s="58" t="s">
@@ -7245,7 +7274,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" s="57" t="s">
@@ -7858,8 +7887,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="19" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="75" t="s">
         <v>368</v>
       </c>
@@ -7878,58 +7907,61 @@
     </row>
     <row r="48" spans="1:8" ht="19" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="G48" s="16">
-        <v>2023</v>
+      <c r="B48" s="11"/>
+      <c r="C48" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>495</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2026</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="C49" s="58" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="G49" s="16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="57" t="s">
-        <v>374</v>
+      <c r="C50" s="58" t="s">
+        <v>372</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="G50" s="16">
         <v>2024</v>
@@ -7938,17 +7970,17 @@
     <row r="51" spans="1:7" ht="19" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="58" t="s">
-        <v>376</v>
+      <c r="C51" s="57" t="s">
+        <v>374</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G51" s="16">
         <v>2024</v>
@@ -7958,16 +7990,16 @@
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G52" s="16">
         <v>2024</v>
@@ -7977,32 +8009,32 @@
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="G53" s="16">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="57" t="s">
-        <v>382</v>
+      <c r="C54" s="58" t="s">
+        <v>380</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>146</v>
@@ -8015,18 +8047,18 @@
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="33">
+        <v>146</v>
+      </c>
+      <c r="G55" s="16">
         <v>2025</v>
       </c>
     </row>
@@ -8034,13 +8066,13 @@
       <c r="A56" s="3"/>
       <c r="B56" s="16"/>
       <c r="C56" s="57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>136</v>
@@ -8050,94 +8082,94 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="19" customHeight="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G57" s="43">
-        <v>2024</v>
+      <c r="A57" s="3"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="33">
+        <v>2025</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="19" customHeight="1">
       <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="76" t="s">
-        <v>390</v>
+      <c r="B58" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>388</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>392</v>
+        <v>66</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="G58" s="43">
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14">
+    <row r="59" spans="1:7" ht="19" customHeight="1">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
       <c r="C59" s="76" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
       <c r="G59" s="43">
         <v>2024</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="19" customHeight="1">
+    <row r="60" spans="1:7" ht="14">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="68" t="s">
-        <v>395</v>
+      <c r="C60" s="76" t="s">
+        <v>393</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="G60" s="43">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19" customHeight="1">
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
       <c r="C61" s="68" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>136</v>
@@ -8146,20 +8178,20 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14">
+    <row r="62" spans="1:7" ht="19" customHeight="1">
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="76" t="s">
-        <v>399</v>
+      <c r="C62" s="68" t="s">
+        <v>397</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="G62" s="43">
         <v>2025</v>
@@ -8169,16 +8201,16 @@
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
       <c r="C63" s="76" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G63" s="43">
         <v>2025</v>
@@ -8188,16 +8220,16 @@
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="76" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="G64" s="43">
         <v>2025</v>
@@ -8207,38 +8239,48 @@
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
       <c r="C65" s="76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G65" s="43">
         <v>2025</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7">
+    <row r="66" spans="1:7" ht="14">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="43">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="72"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="47"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4"/>
@@ -8280,10 +8322,10 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="72"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="4"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="47"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4"/>
@@ -9923,28 +9965,37 @@
       <c r="F254" s="37"/>
       <c r="G254" s="4"/>
     </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="72"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="37"/>
+      <c r="G255" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E62" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E63" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E59" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E60" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="E46" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="E22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="E24" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E54" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E55" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="E27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="E29" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E51" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="E45" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E60" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E57" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E61" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E58" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="E17" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E63" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E64" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E52" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="E26" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="E40" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="E44" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
@@ -9955,14 +10006,14 @@
     <hyperlink ref="E13" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
     <hyperlink ref="E7" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
     <hyperlink ref="E4" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E64" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E61" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="E56" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E65" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E57" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
     <hyperlink ref="E33" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E52" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E53" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="E2" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="E16" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E54" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="E23" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
     <hyperlink ref="E30" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
     <hyperlink ref="E11" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
@@ -9970,25 +10021,26 @@
     <hyperlink ref="E32" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="E18" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="E3" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="E48" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
     <hyperlink ref="E12" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
     <hyperlink ref="E8" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E49" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
     <hyperlink ref="E41" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E47" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E21" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E58" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E34" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E39" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="E38" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E31" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E65" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E28" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="E35" r:id="rId60" xr:uid="{7EC1841A-D2E4-4D40-85F8-574AF7C9ED0F}"/>
-    <hyperlink ref="E9" r:id="rId61" xr:uid="{5F14C7A6-B6D6-9542-8B33-155349E77E8F}"/>
-    <hyperlink ref="E10" r:id="rId62" xr:uid="{AF98066F-1603-B94A-BA89-552597EAD77F}"/>
-    <hyperlink ref="E6" r:id="rId63" xr:uid="{C9881E59-5194-2E4A-BA83-759370DAD6ED}"/>
+    <hyperlink ref="E21" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E59" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E34" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E39" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E38" r:id="rId55" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E31" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E66" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E28" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E35" r:id="rId59" xr:uid="{7EC1841A-D2E4-4D40-85F8-574AF7C9ED0F}"/>
+    <hyperlink ref="E9" r:id="rId60" xr:uid="{5F14C7A6-B6D6-9542-8B33-155349E77E8F}"/>
+    <hyperlink ref="E10" r:id="rId61" xr:uid="{AF98066F-1603-B94A-BA89-552597EAD77F}"/>
+    <hyperlink ref="E6" r:id="rId62" xr:uid="{C9881E59-5194-2E4A-BA83-759370DAD6ED}"/>
+    <hyperlink ref="E47" r:id="rId63" xr:uid="{5BC41198-863A-4B49-A628-ACE02D2FCC04}"/>
+    <hyperlink ref="E48" r:id="rId64" xr:uid="{C7D2FA05-774D-B74F-BB11-AA780E335549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9999,11 +10051,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -10014,35 +10066,39 @@
     <col min="5" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="95" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-    </row>
-    <row r="3" spans="1:6" ht="14">
+      <c r="G1" s="95" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+    </row>
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="37">
         <v>2025</v>
       </c>
@@ -10062,7 +10118,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" customHeight="1">
+    <row r="4" spans="1:7" ht="19" customHeight="1">
       <c r="A4" s="37">
         <v>2025</v>
       </c>
@@ -10082,7 +10138,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14">
+    <row r="5" spans="1:7" ht="14">
       <c r="A5" s="37">
         <v>2025</v>
       </c>
@@ -10102,7 +10158,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:7" ht="14">
       <c r="A6" s="37">
         <v>2025</v>
       </c>
@@ -10122,7 +10178,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="37">
         <v>2025</v>
       </c>
@@ -10142,7 +10198,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="37">
         <v>2024</v>
       </c>
@@ -10162,7 +10218,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="37"/>
       <c r="B9" s="77" t="s">
         <v>424</v>
@@ -10178,7 +10234,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" customHeight="1">
+    <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="77" t="s">
         <v>425</v>
@@ -10194,7 +10250,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1">
+    <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="78" t="s">
         <v>127</v>
@@ -10210,7 +10266,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" customHeight="1">
+    <row r="12" spans="1:7" ht="19" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="78" t="s">
         <v>428</v>
@@ -10226,7 +10282,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" customHeight="1">
+    <row r="13" spans="1:7" ht="19" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="77" t="s">
         <v>430</v>
@@ -10242,7 +10298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" customHeight="1">
+    <row r="14" spans="1:7" ht="19" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="78" t="s">
         <v>432</v>
@@ -10258,7 +10314,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" customHeight="1">
+    <row r="15" spans="1:7" ht="19" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="5"/>
@@ -10266,7 +10322,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="19" customHeight="1">
+    <row r="16" spans="1:7" ht="19" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="5"/>
@@ -11755,7 +11811,8 @@
       <c r="F201" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -11784,10 +11841,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF57CB64-0143-634E-B2B9-D0257CE1E416}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11795,7 +11852,7 @@
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="81" t="s">
         <v>131</v>
       </c>
@@ -11808,8 +11865,11 @@
       <c r="D1" s="81" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="81" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="82">
         <v>2025</v>
       </c>
@@ -11823,7 +11883,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="82">
         <v>2025</v>
       </c>
@@ -11837,7 +11897,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="82">
         <v>2025</v>
       </c>
@@ -11851,7 +11911,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="82">
         <v>2025</v>
       </c>
@@ -11865,7 +11925,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="82">
         <v>2025</v>
       </c>
@@ -11879,7 +11939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="82">
         <v>2025</v>
       </c>
@@ -11893,7 +11953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="82">
         <v>2025</v>
       </c>
@@ -11907,7 +11967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="82">
         <v>2025</v>
       </c>
@@ -11921,7 +11981,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="82">
         <v>2025</v>
       </c>
@@ -11935,7 +11995,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="82">
         <v>2025</v>
       </c>
@@ -11949,7 +12009,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="82">
         <v>2024</v>
       </c>
@@ -11963,7 +12023,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="82">
         <v>2024</v>
       </c>
@@ -11977,7 +12037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="82">
         <v>2023</v>
       </c>
@@ -11991,7 +12051,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="82">
         <v>2023</v>
       </c>
@@ -12005,7 +12065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="82">
         <v>2023</v>
       </c>

--- a/src/paper_list.xlsx
+++ b/src/paper_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhang/Desktop/Data Agents Survey/awesome-data-agents/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3363BDD8-B60B-0443-964E-3BD15038B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90024C-810F-0C4C-AEB6-68438FBFB490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -494,18 +494,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>https://arxiv.org/abs/2502.05562</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>https://dl.acm.org/doi/abs/10.14778/3685800.3685869</t>
     </r>
   </si>
@@ -2660,6 +2648,10 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2601.18320</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/epdf/10.1145/3769771</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3569,7 +3561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3855,13 +3847,16 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="46" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4184,11 +4179,11 @@
   </sheetPr>
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -4203,48 +4198,48 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>131</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14">
       <c r="A2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="27">
         <v>2024</v>
@@ -4254,16 +4249,16 @@
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>138</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="27">
         <v>2025</v>
@@ -4273,16 +4268,16 @@
       <c r="A4" s="3"/>
       <c r="B4" s="27"/>
       <c r="C4" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>141</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="27">
         <v>2024</v>
@@ -4290,20 +4285,20 @@
     </row>
     <row r="5" spans="1:8" ht="14">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>145</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="27">
         <v>2024</v>
@@ -4313,16 +4308,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="27"/>
       <c r="C6" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="27">
         <v>2025</v>
@@ -4331,19 +4326,19 @@
     <row r="7" spans="1:8" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="D7" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="27">
         <v>2024</v>
@@ -4353,16 +4348,16 @@
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>154</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="27">
         <v>2024</v>
@@ -4372,16 +4367,16 @@
       <c r="A9" s="3"/>
       <c r="B9" s="27"/>
       <c r="C9" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="27">
         <v>2024</v>
@@ -4391,16 +4386,16 @@
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="27">
         <v>2025</v>
@@ -4410,16 +4405,16 @@
       <c r="A11" s="3"/>
       <c r="B11" s="27"/>
       <c r="C11" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>38</v>
+      <c r="E11" s="98" t="s">
+        <v>495</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="G11" s="27">
         <v>2025</v>
@@ -4429,16 +4424,16 @@
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>162</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="27">
         <v>2025</v>
@@ -4448,16 +4443,16 @@
       <c r="A13" s="84"/>
       <c r="B13" s="86"/>
       <c r="C13" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="27">
         <v>2025</v>
@@ -4466,19 +4461,19 @@
     <row r="14" spans="1:8" ht="19" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="D14" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="27">
         <v>2024</v>
@@ -4488,16 +4483,16 @@
       <c r="A15" s="3"/>
       <c r="B15" s="27"/>
       <c r="C15" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>169</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="27">
         <v>2025</v>
@@ -4505,22 +4500,22 @@
     </row>
     <row r="16" spans="1:8" ht="14">
       <c r="A16" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="D16" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="16">
         <v>2022</v>
@@ -4528,20 +4523,20 @@
     </row>
     <row r="17" spans="1:7" ht="14">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="G17" s="16">
         <v>2024</v>
@@ -4551,16 +4546,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
       <c r="C18" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -4570,16 +4565,16 @@
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
       <c r="C19" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="G19" s="16">
         <v>2024</v>
@@ -4589,16 +4584,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
       <c r="C20" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="G20" s="16">
         <v>2024</v>
@@ -4607,19 +4602,19 @@
     <row r="21" spans="1:7" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="D21" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>186</v>
-      </c>
       <c r="E21" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="35">
         <v>2024</v>
@@ -4629,16 +4624,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
       <c r="C22" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>188</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>189</v>
       </c>
       <c r="G22" s="35">
         <v>2024</v>
@@ -4648,16 +4643,16 @@
       <c r="A23" s="3"/>
       <c r="B23" s="35"/>
       <c r="C23" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="G23" s="35">
         <v>2024</v>
@@ -4666,19 +4661,19 @@
     <row r="24" spans="1:7" ht="25" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="D24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
@@ -4688,16 +4683,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1">
         <v>2024</v>
@@ -4707,16 +4702,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G26" s="1">
         <v>2024</v>
@@ -4726,16 +4721,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
@@ -4745,16 +4740,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="1">
         <v>2025</v>
@@ -4764,16 +4759,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1">
         <v>2025</v>
@@ -4783,16 +4778,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="1">
         <v>2025</v>
@@ -4800,22 +4795,22 @@
     </row>
     <row r="31" spans="1:7" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="D31" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7">
         <v>2023</v>
@@ -4825,16 +4820,16 @@
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7">
         <v>2023</v>
@@ -4844,16 +4839,16 @@
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
       <c r="C33" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7">
         <v>2024</v>
@@ -4863,16 +4858,16 @@
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7">
         <v>2024</v>
@@ -4881,19 +4876,19 @@
     <row r="35" spans="1:7" ht="19" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G35" s="10">
         <v>2023</v>
@@ -4903,16 +4898,16 @@
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36" s="10">
         <v>2023</v>
@@ -4922,16 +4917,16 @@
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G37" s="10">
         <v>2023</v>
@@ -4941,16 +4936,16 @@
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" s="10">
         <v>2024</v>
@@ -4959,19 +4954,19 @@
     <row r="39" spans="1:7" ht="19" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="D39" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" s="12">
         <v>2023</v>
@@ -4981,16 +4976,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="11"/>
       <c r="C40" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G40" s="12">
         <v>2024</v>
@@ -5000,16 +4995,16 @@
       <c r="A41" s="3"/>
       <c r="B41" s="11"/>
       <c r="C41" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>488</v>
-      </c>
-      <c r="E41" s="94" t="s">
-        <v>491</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>489</v>
       </c>
       <c r="G41" s="12">
         <v>2025</v>
@@ -5019,16 +5014,16 @@
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="12">
         <v>2025</v>
@@ -5037,19 +5032,19 @@
     <row r="43" spans="1:7" ht="19" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G43" s="16">
         <v>2024</v>
@@ -5059,16 +5054,16 @@
       <c r="A44" s="3"/>
       <c r="B44" s="16"/>
       <c r="C44" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44" s="16">
         <v>2024</v>
@@ -5078,16 +5073,16 @@
       <c r="A45" s="3"/>
       <c r="B45" s="16"/>
       <c r="C45" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="16">
         <v>2024</v>
@@ -5097,16 +5092,16 @@
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
       <c r="C46" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="16">
         <v>2024</v>
@@ -5116,16 +5111,16 @@
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
       <c r="C47" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" s="16">
         <v>2025</v>
@@ -5135,16 +5130,16 @@
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
       <c r="C48" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="16">
         <v>2025</v>
@@ -5153,19 +5148,19 @@
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="D49" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G49" s="17">
         <v>2023</v>
@@ -5175,16 +5170,16 @@
       <c r="A50" s="3"/>
       <c r="B50" s="17"/>
       <c r="C50" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>261</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G50" s="17">
         <v>2024</v>
@@ -5194,16 +5189,16 @@
       <c r="A51" s="3"/>
       <c r="B51" s="17"/>
       <c r="C51" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G51" s="17">
         <v>2025</v>
@@ -5213,16 +5208,16 @@
       <c r="A52" s="3"/>
       <c r="B52" s="17"/>
       <c r="C52" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G52" s="17">
         <v>2025</v>
@@ -5232,16 +5227,16 @@
       <c r="A53" s="22"/>
       <c r="B53" s="26"/>
       <c r="C53" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>271</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G53" s="25">
         <v>2025</v>
@@ -5251,16 +5246,16 @@
       <c r="A54" s="22"/>
       <c r="B54" s="20"/>
       <c r="C54" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G54" s="20">
         <v>2025</v>
@@ -6889,56 +6884,56 @@
     <hyperlink ref="E38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E46" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E53" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E48" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E2" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E40" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E51" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E14" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E54" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E10" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E44" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E3" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E13" r:id="rId53" xr:uid="{11FCC11B-99E2-6B4C-A9D4-EECA298CBFF2}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E53" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E54" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E17" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E28" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E44" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E3" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E36" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E13" r:id="rId52" xr:uid="{11FCC11B-99E2-6B4C-A9D4-EECA298CBFF2}"/>
+    <hyperlink ref="E11" r:id="rId53" xr:uid="{30541ACD-5F48-0E47-9B9E-C7F9A22B1B61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6951,7 +6946,7 @@
   </sheetPr>
   <dimension ref="A1:K255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
@@ -6967,48 +6962,48 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>131</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>276</v>
-      </c>
       <c r="E2" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="27">
         <v>2024</v>
@@ -7018,16 +7013,16 @@
       <c r="A3" s="8"/>
       <c r="B3" s="27"/>
       <c r="C3" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>278</v>
-      </c>
       <c r="E3" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="27">
         <v>2025</v>
@@ -7035,20 +7030,20 @@
     </row>
     <row r="4" spans="1:8" ht="14">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>280</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="27">
         <v>2025</v>
@@ -7058,16 +7053,16 @@
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
       <c r="C5" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>282</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="27">
         <v>2025</v>
@@ -7077,16 +7072,16 @@
       <c r="A6" s="84"/>
       <c r="B6" s="86"/>
       <c r="C6" s="90" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="93" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>487</v>
-      </c>
       <c r="F6" s="92" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G6" s="86">
         <v>2026</v>
@@ -7098,19 +7093,19 @@
     <row r="7" spans="1:8" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>284</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>285</v>
       </c>
       <c r="G7" s="27">
         <v>2025</v>
@@ -7120,16 +7115,16 @@
       <c r="A8" s="3"/>
       <c r="B8" s="27"/>
       <c r="C8" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>287</v>
-      </c>
       <c r="E8" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="27">
         <v>2025</v>
@@ -7139,16 +7134,16 @@
       <c r="A9" s="84"/>
       <c r="B9" s="86"/>
       <c r="C9" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>289</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="27">
         <v>2025</v>
@@ -7158,16 +7153,16 @@
       <c r="A10" s="3"/>
       <c r="B10" s="27"/>
       <c r="C10" s="54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D10" s="87" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>481</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>482</v>
-      </c>
       <c r="F10" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="89">
         <v>2025</v>
@@ -7176,19 +7171,19 @@
     <row r="11" spans="1:8" ht="19" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="E11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>292</v>
       </c>
       <c r="G11" s="27">
         <v>2024</v>
@@ -7198,16 +7193,16 @@
       <c r="A12" s="3"/>
       <c r="B12" s="27"/>
       <c r="C12" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>294</v>
-      </c>
       <c r="E12" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="27">
         <v>2024</v>
@@ -7217,16 +7212,16 @@
       <c r="A13" s="3"/>
       <c r="B13" s="27"/>
       <c r="C13" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>296</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="27">
         <v>2025</v>
@@ -7234,22 +7229,22 @@
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>171</v>
-      </c>
       <c r="C14" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="16">
         <v>2024</v>
@@ -7259,16 +7254,16 @@
       <c r="A15" s="3"/>
       <c r="B15" s="16"/>
       <c r="C15" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>300</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>301</v>
       </c>
       <c r="G15" s="16">
         <v>2024</v>
@@ -7278,16 +7273,16 @@
       <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>303</v>
-      </c>
       <c r="E16" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="16">
         <v>2025</v>
@@ -7295,20 +7290,20 @@
     </row>
     <row r="17" spans="1:11" ht="14">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>305</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>306</v>
       </c>
       <c r="G17" s="16">
         <v>2025</v>
@@ -7318,16 +7313,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="16"/>
       <c r="C18" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="G18" s="16">
         <v>2025</v>
@@ -7337,16 +7332,16 @@
       <c r="A19" s="3"/>
       <c r="B19" s="16"/>
       <c r="C19" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>311</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>312</v>
       </c>
       <c r="G19" s="16">
         <v>2025</v>
@@ -7356,16 +7351,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="16"/>
       <c r="C20" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="16">
         <v>2025</v>
@@ -7374,19 +7369,19 @@
     <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>316</v>
-      </c>
       <c r="E21" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="35">
         <v>2024</v>
@@ -7396,16 +7391,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="35"/>
       <c r="C22" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>318</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>319</v>
       </c>
       <c r="G22" s="35">
         <v>2025</v>
@@ -7415,16 +7410,16 @@
       <c r="A23" s="3"/>
       <c r="B23" s="35"/>
       <c r="C23" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="G23" s="35">
         <v>2025</v>
@@ -7433,19 +7428,19 @@
     <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1">
         <v>2024</v>
@@ -7455,16 +7450,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1">
         <v>2024</v>
@@ -7474,16 +7469,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="1">
         <v>2024</v>
@@ -7497,16 +7492,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1">
         <v>2025</v>
@@ -7520,16 +7515,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>332</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>333</v>
       </c>
       <c r="G28" s="1">
         <v>2025</v>
@@ -7539,16 +7534,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1">
         <v>2025</v>
@@ -7558,16 +7553,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1">
         <v>2025</v>
@@ -7575,22 +7570,22 @@
     </row>
     <row r="31" spans="1:11" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="C31" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7">
         <v>2023</v>
@@ -7600,16 +7595,16 @@
       <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G32" s="7">
         <v>2024</v>
@@ -7619,16 +7614,16 @@
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
       <c r="C33" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="7">
         <v>2024</v>
@@ -7638,16 +7633,16 @@
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="7">
         <v>2024</v>
@@ -7657,16 +7652,16 @@
       <c r="A35" s="84"/>
       <c r="B35" s="85"/>
       <c r="C35" s="73" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G35" s="7">
         <v>2025</v>
@@ -7676,16 +7671,16 @@
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="40" t="s">
         <v>479</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>480</v>
       </c>
       <c r="G36" s="7">
         <v>2026</v>
@@ -7694,19 +7689,19 @@
     <row r="37" spans="1:8" ht="19" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G37" s="10">
         <v>2023</v>
@@ -7716,16 +7711,16 @@
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="10">
         <v>2024</v>
@@ -7735,16 +7730,16 @@
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>353</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G39" s="10">
         <v>2024</v>
@@ -7755,16 +7750,16 @@
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="36" t="s">
         <v>355</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>356</v>
       </c>
       <c r="G40" s="10">
         <v>2025</v>
@@ -7774,16 +7769,16 @@
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>358</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="10">
         <v>2025</v>
@@ -7793,16 +7788,16 @@
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G42" s="10">
         <v>2025</v>
@@ -7812,16 +7807,16 @@
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
       <c r="C43" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>361</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G43" s="10">
         <v>2025</v>
@@ -7830,19 +7825,19 @@
     <row r="44" spans="1:8" ht="19" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>363</v>
-      </c>
       <c r="E44" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G44" s="11">
         <v>2024</v>
@@ -7852,16 +7847,16 @@
       <c r="A45" s="3"/>
       <c r="B45" s="11"/>
       <c r="C45" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="D45" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>365</v>
-      </c>
       <c r="E45" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="11">
         <v>2024</v>
@@ -7871,16 +7866,16 @@
       <c r="A46" s="3"/>
       <c r="B46" s="11"/>
       <c r="C46" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>367</v>
-      </c>
       <c r="E46" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G46" s="11">
         <v>2025</v>
@@ -7888,18 +7883,18 @@
     </row>
     <row r="47" spans="1:8" ht="19" customHeight="1">
       <c r="A47" s="84"/>
-      <c r="B47" s="96"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>369</v>
-      </c>
       <c r="E47" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G47" s="11">
         <v>2025</v>
@@ -7909,16 +7904,16 @@
       <c r="A48" s="3"/>
       <c r="B48" s="11"/>
       <c r="C48" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="E48" s="96" t="s">
         <v>494</v>
       </c>
-      <c r="E48" s="97" t="s">
-        <v>495</v>
-      </c>
       <c r="F48" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G48" s="11">
         <v>2026</v>
@@ -7930,19 +7925,19 @@
     <row r="49" spans="1:7" ht="19" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="E49" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G49" s="16">
         <v>2023</v>
@@ -7952,16 +7947,16 @@
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
       <c r="C50" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>373</v>
-      </c>
       <c r="E50" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G50" s="16">
         <v>2024</v>
@@ -7971,16 +7966,16 @@
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
       <c r="C51" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="E51" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" s="16">
         <v>2024</v>
@@ -7990,16 +7985,16 @@
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
       <c r="C52" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>377</v>
-      </c>
       <c r="E52" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G52" s="16">
         <v>2024</v>
@@ -8009,16 +8004,16 @@
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
       <c r="C53" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>379</v>
-      </c>
       <c r="E53" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G53" s="16">
         <v>2024</v>
@@ -8028,16 +8023,16 @@
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
       <c r="C54" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="E54" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" s="16">
         <v>2025</v>
@@ -8047,16 +8042,16 @@
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
       <c r="C55" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="E55" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" s="16">
         <v>2025</v>
@@ -8066,16 +8061,16 @@
       <c r="A56" s="3"/>
       <c r="B56" s="16"/>
       <c r="C56" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>385</v>
-      </c>
       <c r="E56" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G56" s="33">
         <v>2025</v>
@@ -8085,16 +8080,16 @@
       <c r="A57" s="3"/>
       <c r="B57" s="16"/>
       <c r="C57" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>387</v>
-      </c>
       <c r="E57" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G57" s="33">
         <v>2025</v>
@@ -8103,19 +8098,19 @@
     <row r="58" spans="1:7" ht="19" customHeight="1">
       <c r="A58" s="42"/>
       <c r="B58" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>389</v>
-      </c>
       <c r="E58" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G58" s="43">
         <v>2024</v>
@@ -8125,16 +8120,16 @@
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
       <c r="C59" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="E59" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>392</v>
       </c>
       <c r="G59" s="43">
         <v>2024</v>
@@ -8144,16 +8139,16 @@
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
       <c r="C60" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="E60" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G60" s="43">
         <v>2024</v>
@@ -8163,16 +8158,16 @@
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
       <c r="C61" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>396</v>
-      </c>
       <c r="E61" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G61" s="43">
         <v>2025</v>
@@ -8182,16 +8177,16 @@
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
       <c r="C62" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>398</v>
-      </c>
       <c r="E62" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G62" s="43">
         <v>2025</v>
@@ -8201,16 +8196,16 @@
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
       <c r="C63" s="76" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>400</v>
-      </c>
       <c r="E63" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G63" s="43">
         <v>2025</v>
@@ -8220,16 +8215,16 @@
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>402</v>
-      </c>
       <c r="E64" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G64" s="43">
         <v>2025</v>
@@ -8239,16 +8234,16 @@
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
       <c r="C65" s="76" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>404</v>
-      </c>
       <c r="E65" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G65" s="43">
         <v>2025</v>
@@ -8258,16 +8253,16 @@
       <c r="A66" s="42"/>
       <c r="B66" s="43"/>
       <c r="C66" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>406</v>
-      </c>
       <c r="E66" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G66" s="43">
         <v>2025</v>
@@ -10067,55 +10062,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>492</v>
+      <c r="F1" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" s="37">
         <v>2025</v>
       </c>
       <c r="B3" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" customHeight="1">
@@ -10123,19 +10118,19 @@
         <v>2025</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14">
@@ -10143,19 +10138,19 @@
         <v>2025</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
@@ -10163,19 +10158,19 @@
         <v>2025</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>418</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14">
@@ -10183,19 +10178,19 @@
         <v>2025</v>
       </c>
       <c r="B7" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14">
@@ -10203,115 +10198,115 @@
         <v>2024</v>
       </c>
       <c r="B8" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14">
       <c r="A9" s="37"/>
       <c r="B9" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" customHeight="1">
@@ -11854,19 +11849,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>130</v>
-      </c>
       <c r="E1" s="81" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11874,13 +11869,13 @@
         <v>2025</v>
       </c>
       <c r="B2" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>441</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11888,13 +11883,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>444</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11902,13 +11897,13 @@
         <v>2025</v>
       </c>
       <c r="B4" s="82" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>447</v>
-      </c>
       <c r="D4" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11916,13 +11911,13 @@
         <v>2025</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>449</v>
-      </c>
       <c r="D5" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11930,13 +11925,13 @@
         <v>2025</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11944,13 +11939,13 @@
         <v>2025</v>
       </c>
       <c r="B7" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>452</v>
-      </c>
       <c r="D7" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11958,13 +11953,13 @@
         <v>2025</v>
       </c>
       <c r="B8" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>454</v>
-      </c>
       <c r="D8" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11972,13 +11967,13 @@
         <v>2025</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="82" t="s">
         <v>455</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11986,13 +11981,13 @@
         <v>2025</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>458</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12000,13 +11995,13 @@
         <v>2025</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>461</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12014,13 +12009,13 @@
         <v>2024</v>
       </c>
       <c r="B12" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="83" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="83" t="s">
-        <v>464</v>
-      </c>
       <c r="D12" s="82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12028,13 +12023,13 @@
         <v>2024</v>
       </c>
       <c r="B13" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>466</v>
-      </c>
       <c r="D13" s="82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12042,13 +12037,13 @@
         <v>2023</v>
       </c>
       <c r="B14" s="82" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>467</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>468</v>
-      </c>
       <c r="D14" s="82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12056,13 +12051,13 @@
         <v>2023</v>
       </c>
       <c r="B15" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>470</v>
-      </c>
       <c r="D15" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12070,13 +12065,13 @@
         <v>2023</v>
       </c>
       <c r="B16" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>471</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>472</v>
-      </c>
       <c r="D16" s="82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
